--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_AD4D1D646341095ACB700093ED12C3A0693EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C3CC47-1F4C-4932-A718-0B53682CDC50}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D1D646341095ACB700093ED12C3A0693EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1A3F73-60A0-476B-9281-36E5524287C9}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -403,7 +403,7 @@
         <v>15</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>37337</v>
@@ -414,17 +414,26 @@
       </c>
       <c r="L2">
         <f>L1-B2</f>
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44642</v>
+      </c>
       <c r="K3">
         <f t="shared" ref="K3:K26" si="0">A3</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L3">
         <f>L2-B3</f>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -434,7 +443,7 @@
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L25" si="1">L3-B4</f>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -444,7 +453,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -454,7 +463,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -464,7 +473,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -474,7 +483,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -484,7 +493,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -494,7 +503,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -504,7 +513,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -514,7 +523,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -524,7 +533,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -534,7 +543,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -544,7 +553,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -554,7 +563,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.45">
@@ -564,7 +573,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="18" spans="11:12" x14ac:dyDescent="0.45">
@@ -574,7 +583,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.45">
@@ -584,7 +593,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="20" spans="11:12" x14ac:dyDescent="0.45">
@@ -594,7 +603,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="21" spans="11:12" x14ac:dyDescent="0.45">
@@ -604,7 +613,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="22" spans="11:12" x14ac:dyDescent="0.45">
@@ -614,7 +623,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="23" spans="11:12" x14ac:dyDescent="0.45">
@@ -624,7 +633,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.45">
@@ -634,7 +643,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.45">
@@ -644,7 +653,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.45">
@@ -654,7 +663,7 @@
       </c>
       <c r="L26">
         <f>L25-B26</f>
-        <v>221</v>
+        <v>218.5</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_AD4D1D646341095ACB700093ED12C3A0693EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B1A3F73-60A0-476B-9281-36E5524287C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2FE354-2B70-4D7A-BCBE-F7299EF153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11963" yWindow="7710" windowWidth="16874" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -437,13 +437,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44643</v>
+      </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L25" si="1">L3-B4</f>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -453,7 +462,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -463,7 +472,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -473,7 +482,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -483,7 +492,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -493,7 +502,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -503,7 +512,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -513,7 +522,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -523,7 +532,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -533,7 +542,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -543,7 +552,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -553,7 +562,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -563,7 +572,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.45">
@@ -573,7 +582,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="18" spans="11:12" x14ac:dyDescent="0.45">
@@ -583,7 +592,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.45">
@@ -593,7 +602,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="20" spans="11:12" x14ac:dyDescent="0.45">
@@ -603,7 +612,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="21" spans="11:12" x14ac:dyDescent="0.45">
@@ -613,7 +622,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="22" spans="11:12" x14ac:dyDescent="0.45">
@@ -623,7 +632,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="23" spans="11:12" x14ac:dyDescent="0.45">
@@ -633,7 +642,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.45">
@@ -643,7 +652,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.45">
@@ -653,7 +662,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.45">
@@ -663,7 +672,7 @@
       </c>
       <c r="L26">
         <f>L25-B26</f>
-        <v>218.5</v>
+        <v>215.5</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2FE354-2B70-4D7A-BCBE-F7299EF153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7E2FE354-2B70-4D7A-BCBE-F7299EF153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71F01A4-FC47-4FBB-9FE1-B6CC6EA7E21E}"/>
   <bookViews>
-    <workbookView xWindow="11963" yWindow="7710" windowWidth="16874" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -409,8 +409,8 @@
         <v>37337</v>
       </c>
       <c r="K2">
-        <f>A2</f>
-        <v>15</v>
+        <f>A2*4</f>
+        <v>60</v>
       </c>
       <c r="L2">
         <f>L1-B2</f>
@@ -428,8 +428,8 @@
         <v>44642</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K26" si="0">A3</f>
-        <v>16</v>
+        <f t="shared" ref="K3:K26" si="0">A3*4</f>
+        <v>64</v>
       </c>
       <c r="L3">
         <f>L2-B3</f>
@@ -448,7 +448,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L25" si="1">L3-B4</f>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{7E2FE354-2B70-4D7A-BCBE-F7299EF153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C71F01A4-FC47-4FBB-9FE1-B6CC6EA7E21E}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{7E2FE354-2B70-4D7A-BCBE-F7299EF153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0943F85-E2E5-4D4F-9E4A-F3C4B6A8A651}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Ved time nummer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -47,6 +44,15 @@
   </si>
   <si>
     <t>IGNORE</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>slut</t>
+  </si>
+  <si>
+    <t>Antal dage i processen</t>
   </si>
 </sst>
 </file>
@@ -82,9 +88,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -376,20 +385,31 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44614</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44696</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
       </c>
       <c r="K1">
         <v>0</v>
@@ -398,29 +418,31 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>15</v>
-      </c>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>37337</v>
+        <v>44642</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2">
+        <f>DAYS360(F1,H1)</f>
+        <v>83</v>
       </c>
       <c r="K2">
-        <f>A2*4</f>
-        <v>60</v>
+        <f>IF(C2&lt;&gt;0,DAYS360($F$1,C2),0)</f>
+        <v>30</v>
       </c>
       <c r="L2">
         <f>L1-B2</f>
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>16</v>
-      </c>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -428,18 +450,15 @@
         <v>44642</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K26" si="0">A3*4</f>
-        <v>64</v>
+        <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <v>30</v>
       </c>
       <c r="L3">
         <f>L2-B3</f>
         <v>218.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>18</v>
-      </c>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3</v>
       </c>
@@ -448,14 +467,14 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L25" si="1">L3-B4</f>
         <v>215.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -465,7 +484,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -475,7 +494,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -485,7 +504,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -495,7 +514,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -505,7 +524,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -515,7 +534,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -525,7 +544,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -535,7 +554,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -545,7 +564,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -555,7 +574,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -565,7 +584,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -676,6 +695,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="B1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{7E2FE354-2B70-4D7A-BCBE-F7299EF153A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0943F85-E2E5-4D4F-9E4A-F3C4B6A8A651}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4804130-CBDA-401A-8B78-EDFDD63E3A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Antal dage i processen</t>
+  </si>
+  <si>
+    <t>Rapport</t>
   </si>
 </sst>
 </file>
@@ -374,22 +377,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:L26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +421,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2</v>
       </c>
@@ -442,7 +445,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -458,7 +461,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -474,224 +477,233 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1.6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44650</v>
+      </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+        <v>213.9</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f>L25-B26</f>
-        <v>215.5</v>
+        <v>213.9</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4804130-CBDA-401A-8B78-EDFDD63E3A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{F4804130-CBDA-401A-8B78-EDFDD63E3A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE52A36-2BBB-41BE-BEEF-ABEE8CDA55B3}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -56,6 +57,9 @@
   </si>
   <si>
     <t>Rapport</t>
+  </si>
+  <si>
+    <t>Produkt</t>
   </si>
 </sst>
 </file>
@@ -379,20 +383,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -418,10 +425,10 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -442,10 +449,10 @@
       </c>
       <c r="L2">
         <f>L1-B2</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -458,10 +465,10 @@
       </c>
       <c r="L3">
         <f>L2-B3</f>
-        <v>218.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>141.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3</v>
       </c>
@@ -474,236 +481,550 @@
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L25" si="1">L3-B4</f>
-        <v>215.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>1.6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44650</v>
-      </c>
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C5" s="1"/>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>213.9</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f>L25-B26</f>
-        <v>213.9</v>
+        <v>138.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B361283B-B7EA-4887-912D-4F7C442780E7}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44614</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44696</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1.6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44650</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2">
+        <f>DAYS360(F1,H1)</f>
+        <v>83</v>
+      </c>
+      <c r="K2">
+        <f>IF(C2&lt;&gt;0,DAYS360($F$1,C2),0)</f>
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <f>L1-B2</f>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C3" s="1"/>
+      <c r="K3">
+        <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L26" si="1">L2-B3</f>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C4" s="1"/>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>L21-B22</f>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{F4804130-CBDA-401A-8B78-EDFDD63E3A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DE52A36-2BBB-41BE-BEEF-ABEE8CDA55B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A810642-1922-4B8A-BE0B-809C6AEA481E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -387,16 +387,16 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -428,7 +428,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2</v>
       </c>
@@ -452,7 +452,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -468,7 +468,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>3</v>
       </c>
@@ -484,7 +484,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C5" s="1"/>
       <c r="K5">
         <f t="shared" si="0"/>
@@ -495,7 +495,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -605,7 +605,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -655,7 +655,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -718,18 +718,18 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -761,7 +761,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -785,18 +785,23 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0.95</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44652</v>
+      </c>
       <c r="K3">
         <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L26" si="1">L2-B3</f>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C4" s="1"/>
       <c r="K4">
         <f t="shared" si="0"/>
@@ -804,227 +809,227 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f>L21-B22</f>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>111.4</v>
+        <v>110.45</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4804130-CBDA-401A-8B78-EDFDD63E3A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604FE58-7BE7-442B-BD8F-0CF92D9CC0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="4478" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -380,19 +380,19 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -445,7 +445,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -461,7 +461,7 @@
         <v>218.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>3</v>
       </c>
@@ -477,7 +477,7 @@
         <v>215.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -496,7 +496,8 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C6" s="1"/>
       <c r="K6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -506,7 +507,8 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C7" s="1"/>
       <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -516,7 +518,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -526,7 +528,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -536,7 +538,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -546,7 +548,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -556,7 +558,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -566,7 +568,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -576,7 +578,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -586,7 +588,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -596,7 +598,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -606,7 +608,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -616,7 +618,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -626,7 +628,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -636,7 +638,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -646,7 +648,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -656,7 +658,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -666,7 +668,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -676,7 +678,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -686,7 +688,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -696,7 +698,7 @@
         <v>213.9</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D604FE58-7BE7-442B-BD8F-0CF92D9CC0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52508E4C-5F0E-4552-8F56-35F94B237C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="4478" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -380,7 +380,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -497,25 +497,35 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C6" s="1"/>
+      <c r="B6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44650</v>
+      </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>211.70000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C7" s="1"/>
+      <c r="B7">
+        <v>4.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44650</v>
+      </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -525,7 +535,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -535,7 +545,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -545,7 +555,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -555,7 +565,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -565,7 +575,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -575,7 +585,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -585,7 +595,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -595,7 +605,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -605,7 +615,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.45">
@@ -615,7 +625,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="18" spans="11:12" x14ac:dyDescent="0.45">
@@ -625,7 +635,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.45">
@@ -635,7 +645,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="20" spans="11:12" x14ac:dyDescent="0.45">
@@ -645,7 +655,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="21" spans="11:12" x14ac:dyDescent="0.45">
@@ -655,7 +665,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="22" spans="11:12" x14ac:dyDescent="0.45">
@@ -665,7 +675,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="23" spans="11:12" x14ac:dyDescent="0.45">
@@ -675,7 +685,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.45">
@@ -685,7 +695,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.45">
@@ -695,7 +705,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.45">
@@ -705,7 +715,7 @@
       </c>
       <c r="L26">
         <f>L25-B26</f>
-        <v>213.9</v>
+        <v>206.9</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52508E4C-5F0E-4552-8F56-35F94B237C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{52508E4C-5F0E-4552-8F56-35F94B237C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E14F8CBC-AA4D-4DF1-9C53-73D262DB8433}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="4478" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -55,7 +56,13 @@
     <t>Antal dage i processen</t>
   </si>
   <si>
-    <t>Rapport</t>
+    <t>Rapport -taskname</t>
+  </si>
+  <si>
+    <t>Program - taskname</t>
+  </si>
+  <si>
+    <t>Wallets interface</t>
   </si>
 </sst>
 </file>
@@ -380,12 +387,12 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
@@ -393,6 +400,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +428,7 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>222</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -442,7 +452,7 @@
       </c>
       <c r="L2">
         <f>L1-B2</f>
-        <v>220</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -457,8 +467,8 @@
         <v>30</v>
       </c>
       <c r="L3">
-        <f>L2-B3</f>
-        <v>218.5</v>
+        <f t="shared" ref="L3:L26" si="1">L2-B3</f>
+        <v>141.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -473,16 +483,13 @@
         <v>31</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L25" si="1">L3-B4</f>
-        <v>215.5</v>
+        <f t="shared" si="1"/>
+        <v>138.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
       <c r="B5">
-        <v>1.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C5" s="1">
         <v>44650</v>
@@ -493,12 +500,15 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>213.9</v>
+        <v>136.30000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
       <c r="B6">
-        <v>2.2000000000000002</v>
+        <v>4.8</v>
       </c>
       <c r="C6" s="1">
         <v>44650</v>
@@ -509,23 +519,17 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>211.70000000000002</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="B7">
-        <v>4.8</v>
-      </c>
-      <c r="C7" s="1">
-        <v>44650</v>
-      </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -535,7 +539,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -545,7 +549,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -555,7 +559,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -565,7 +569,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -575,7 +579,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -585,7 +589,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -595,7 +599,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -605,7 +609,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -615,7 +619,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.45">
@@ -625,7 +629,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="18" spans="11:12" x14ac:dyDescent="0.45">
@@ -635,7 +639,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.45">
@@ -645,7 +649,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="20" spans="11:12" x14ac:dyDescent="0.45">
@@ -655,7 +659,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="21" spans="11:12" x14ac:dyDescent="0.45">
@@ -665,7 +669,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="22" spans="11:12" x14ac:dyDescent="0.45">
@@ -675,7 +679,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="23" spans="11:12" x14ac:dyDescent="0.45">
@@ -685,7 +689,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.45">
@@ -695,7 +699,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.45">
@@ -705,7 +709,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>206.9</v>
+        <v>131.5</v>
       </c>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.45">
@@ -714,8 +718,332 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <f>L25-B26</f>
-        <v>206.9</v>
+        <f t="shared" si="1"/>
+        <v>131.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>44614</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>44696</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="L1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1.6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44650</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2">
+        <f>DAYS360(F1,H1)</f>
+        <v>83</v>
+      </c>
+      <c r="K2">
+        <f>IF(C2&lt;&gt;0,DAYS360($F$1,C2),0)</f>
+        <v>38</v>
+      </c>
+      <c r="L2">
+        <f>L1-B2</f>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C3" s="1"/>
+      <c r="K3">
+        <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L26" si="1">L2-B3</f>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C4" s="1"/>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C6" s="1"/>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C7" s="1"/>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>111.4</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{52508E4C-5F0E-4552-8F56-35F94B237C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E14F8CBC-AA4D-4DF1-9C53-73D262DB8433}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79CFFF-B063-491D-88C7-F2D2914A2F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="4478" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Wallets interface</t>
+  </si>
+  <si>
+    <t>Login + Signup</t>
+  </si>
+  <si>
+    <t>Clickableprototype</t>
   </si>
 </sst>
 </file>
@@ -387,7 +393,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -472,6 +478,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
       <c r="B4">
         <v>3</v>
       </c>
@@ -488,6 +497,9 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
       <c r="B5">
         <v>2.2000000000000002</v>
       </c>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A79CFFF-B063-491D-88C7-F2D2914A2F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147284B2-911D-4F84-BD43-8D98142C8349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="4478" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -392,20 +392,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -437,7 +437,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2</v>
       </c>
@@ -461,7 +461,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -477,7 +477,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -496,7 +496,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -515,7 +515,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -534,7 +534,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -584,7 +584,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -634,7 +634,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -746,19 +746,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -790,7 +790,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -814,39 +814,49 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C3" s="1"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0.95</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44652</v>
+      </c>
       <c r="K3">
         <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L26" si="1">L2-B3</f>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C4" s="1"/>
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44656</v>
+      </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -854,10 +864,10 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -865,197 +875,197 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>111.4</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>111.4</v>
+        <v>102.25</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147284B2-911D-4F84-BD43-8D98142C8349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31715B9-7346-468D-83B3-AB7B7E7D1A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="4478" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Clickableprototype</t>
+  </si>
+  <si>
+    <t>Main UI</t>
   </si>
 </sst>
 </file>
@@ -392,20 +395,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -437,7 +440,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -461,7 +464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -477,7 +480,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -496,7 +499,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -515,7 +518,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -534,204 +537,213 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44656</v>
+      </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>131.5</v>
+        <v>127.5</v>
       </c>
     </row>
   </sheetData>
@@ -746,19 +758,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -790,7 +802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -814,7 +826,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -830,7 +842,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -846,7 +858,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K5">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -856,7 +868,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C6" s="1"/>
       <c r="K6">
         <f t="shared" si="0"/>
@@ -867,7 +879,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C7" s="1"/>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -878,7 +890,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -888,7 +900,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -898,7 +910,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -908,7 +920,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -918,7 +930,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -928,7 +940,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -938,7 +950,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -948,7 +960,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -958,7 +970,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -968,7 +980,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -978,7 +990,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -988,7 +1000,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -998,7 +1010,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1008,7 +1020,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1018,7 +1030,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1028,7 +1040,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1038,7 +1050,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1048,7 +1060,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1058,7 +1070,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147284B2-911D-4F84-BD43-8D98142C8349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0169C0D-77E0-499E-9BC0-5C3A9979D29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -747,7 +747,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -847,24 +847,35 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44656</v>
+      </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C6" s="1"/>
+      <c r="B6">
+        <v>2.25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44656</v>
+      </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -875,7 +886,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -885,7 +896,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -895,7 +906,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -905,7 +916,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -915,7 +926,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -925,7 +936,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -935,7 +946,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -945,7 +956,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -955,7 +966,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -965,7 +976,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.35">
@@ -975,7 +986,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="18" spans="11:12" x14ac:dyDescent="0.35">
@@ -985,7 +996,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.35">
@@ -995,7 +1006,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="20" spans="11:12" x14ac:dyDescent="0.35">
@@ -1005,7 +1016,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="21" spans="11:12" x14ac:dyDescent="0.35">
@@ -1015,7 +1026,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="22" spans="11:12" x14ac:dyDescent="0.35">
@@ -1025,7 +1036,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="23" spans="11:12" x14ac:dyDescent="0.35">
@@ -1035,7 +1046,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.35">
@@ -1045,7 +1056,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.35">
@@ -1055,7 +1066,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.35">
@@ -1065,7 +1076,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31715B9-7346-468D-83B3-AB7B7E7D1A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5B1A93-9841-490F-9CBA-5A154BC4D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="4478" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -395,20 +395,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -440,7 +440,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2</v>
       </c>
@@ -464,7 +464,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -480,7 +480,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -499,7 +499,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -518,7 +518,7 @@
         <v>136.30000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -537,7 +537,7 @@
         <v>131.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -556,7 +556,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -566,7 +566,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -666,7 +666,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -758,19 +758,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -802,7 +802,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -826,7 +826,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -842,7 +842,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -858,28 +858,39 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44656</v>
+      </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="C6" s="1"/>
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>2.25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44656</v>
+      </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C7" s="1"/>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -887,197 +898,197 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>102.25</v>
+        <v>97.95</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5B1A93-9841-490F-9CBA-5A154BC4D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F19173-D8C8-4F07-B135-CAC5AB668DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,24 +891,35 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C7" s="1"/>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44657</v>
+      </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>97.15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44657</v>
+      </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -918,7 +929,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -928,7 +939,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -938,7 +949,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -948,7 +959,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -958,7 +969,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -968,7 +979,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -978,7 +989,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -988,7 +999,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="17" spans="11:12" x14ac:dyDescent="0.35">
@@ -998,7 +1009,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="18" spans="11:12" x14ac:dyDescent="0.35">
@@ -1008,7 +1019,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="19" spans="11:12" x14ac:dyDescent="0.35">
@@ -1018,7 +1029,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="20" spans="11:12" x14ac:dyDescent="0.35">
@@ -1028,7 +1039,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="21" spans="11:12" x14ac:dyDescent="0.35">
@@ -1038,7 +1049,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="22" spans="11:12" x14ac:dyDescent="0.35">
@@ -1048,7 +1059,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="23" spans="11:12" x14ac:dyDescent="0.35">
@@ -1058,7 +1069,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="24" spans="11:12" x14ac:dyDescent="0.35">
@@ -1068,7 +1079,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="25" spans="11:12" x14ac:dyDescent="0.35">
@@ -1078,7 +1089,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
     <row r="26" spans="11:12" x14ac:dyDescent="0.35">
@@ -1088,7 +1099,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>97.95</v>
+        <v>96.350000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5B1A93-9841-490F-9CBA-5A154BC4D94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121671F2-8B50-4461-9E3C-44199F9C2F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -62,16 +62,46 @@
     <t>Program - taskname</t>
   </si>
   <si>
-    <t>Wallets interface</t>
-  </si>
-  <si>
-    <t>Login + Signup</t>
-  </si>
-  <si>
     <t>Clickableprototype</t>
   </si>
   <si>
     <t>Main UI</t>
+  </si>
+  <si>
+    <t>Database - Check for matchende burger</t>
+  </si>
+  <si>
+    <t>Login + Signup UI</t>
+  </si>
+  <si>
+    <t>Wallets interface UI</t>
+  </si>
+  <si>
+    <t>Profile + settings UI</t>
+  </si>
+  <si>
+    <t>Main + categories UI</t>
+  </si>
+  <si>
+    <t>Database - Singup</t>
+  </si>
+  <si>
+    <t>Signup hookup</t>
+  </si>
+  <si>
+    <t>Login hookup</t>
+  </si>
+  <si>
+    <t>Database - Login</t>
+  </si>
+  <si>
+    <t>Database - Opret vare i databasen</t>
+  </si>
+  <si>
+    <t>Database- Lav class diagram over iteration 1</t>
+  </si>
+  <si>
+    <t>Lav ERD over iteration 1</t>
   </si>
 </sst>
 </file>
@@ -393,22 +423,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -440,7 +470,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -464,7 +494,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -472,17 +502,17 @@
         <v>44642</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <f t="shared" ref="K3:K25" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
         <v>30</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L26" si="1">L2-B3</f>
+        <f t="shared" ref="L3:L33" si="1">L2-B3</f>
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -499,251 +529,383 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0.08</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>138.41999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>0.83</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>137.58999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>0.52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>137.06999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>136.94999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>134.74999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>4.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>129.94999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>129.77999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>125.67999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44656</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>125.17999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44656</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>124.67999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C5" s="1">
-        <v>44650</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>136.30000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>4.8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>44650</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C15" s="1">
         <v>44656</v>
       </c>
-      <c r="K7">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <v>120.67999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44656</v>
+      </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+        <v>114.67999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44657</v>
+      </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+        <f>L24-B25</f>
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K3:K26" si="2">IF(C26&lt;&gt;0,DAYS360($F$1,C26),0)</f>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>127.5</v>
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>111.67999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.45">
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>111.67999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -758,19 +920,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -802,7 +964,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -826,7 +988,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -842,7 +1004,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -858,7 +1020,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2.0499999999999998</v>
       </c>
@@ -874,7 +1036,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2.25</v>
       </c>
@@ -890,7 +1052,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C7" s="1"/>
       <c r="K7">
         <f t="shared" si="0"/>
@@ -901,7 +1063,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -911,7 +1073,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -921,7 +1083,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -931,7 +1093,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -941,7 +1103,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -951,7 +1113,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -961,7 +1123,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -971,7 +1133,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -981,7 +1143,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -991,7 +1153,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1001,7 +1163,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1011,7 +1173,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1021,7 +1183,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1031,7 +1193,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1041,7 +1203,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1051,7 +1213,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1061,7 +1223,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1071,7 +1233,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1081,7 +1243,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F19173-D8C8-4F07-B135-CAC5AB668DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E430AF63-5E5A-439A-BB3E-7DCDBA1DC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="3112" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -72,6 +72,36 @@
   </si>
   <si>
     <t>Main UI</t>
+  </si>
+  <si>
+    <t>Database - Check for matchende bruger</t>
+  </si>
+  <si>
+    <t>Hookup - Signup</t>
+  </si>
+  <si>
+    <t>Hookup - Login</t>
+  </si>
+  <si>
+    <t>Database - Signup</t>
+  </si>
+  <si>
+    <t>Database - Login</t>
+  </si>
+  <si>
+    <t>Class diagram - Iteration 1</t>
+  </si>
+  <si>
+    <t>ERD - Iteration 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database - Opret vare </t>
+  </si>
+  <si>
+    <t>Profile + Settings UI</t>
+  </si>
+  <si>
+    <t>Main + categories</t>
   </si>
 </sst>
 </file>
@@ -395,20 +425,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -440,7 +470,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -464,7 +494,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -480,7 +510,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -499,251 +529,341 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.08</v>
+      </c>
+      <c r="C5" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K5">
+        <f>IF(C13&lt;&gt;0,DAYS360($F$1,C13),0)</f>
+        <v>38</v>
+      </c>
+      <c r="L5">
+        <f>L4-B13</f>
+        <v>136.30000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.83</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K6">
+        <f>IF(C14&lt;&gt;0,DAYS360($F$1,C14),0)</f>
+        <v>38</v>
+      </c>
+      <c r="L6">
+        <f>L5-B14</f>
+        <v>131.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K7">
+        <f>IF(C15&lt;&gt;0,DAYS360($F$1,C15),0)</f>
+        <v>43</v>
+      </c>
+      <c r="L7">
+        <f>L6-B15</f>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>127.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>0.17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>127.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>126.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>126.21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>122.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C13" s="1">
         <v>44650</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
-        <v>136.30000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="K13" t="e">
+        <f>IF(#REF!&lt;&gt;0,DAYS360($F$1,#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" t="e">
+        <f>L12-#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B14">
         <v>4.8</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C14" s="1">
         <v>44650</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
-        <v>131.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="K14" t="e">
+        <f>IF(#REF!&lt;&gt;0,DAYS360($F$1,#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" t="e">
+        <f>L13-#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C15" s="1">
         <v>44656</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K15" t="e">
+        <f>IF(#REF!&lt;&gt;0,DAYS360($F$1,#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" t="e">
+        <f>L14-#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44656</v>
+      </c>
+      <c r="K16" t="e">
+        <f>IF(#REF!&lt;&gt;0,DAYS360($F$1,#REF!),0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" t="e">
+        <f>L15-#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44657</v>
+      </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L18" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L19" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L20" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L21" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L22" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L23" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L24" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L25" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
-        <v>127.5</v>
+      <c r="L26" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -758,19 +878,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -802,7 +922,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -826,7 +946,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -842,7 +962,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -858,7 +978,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2.0499999999999998</v>
       </c>
@@ -874,7 +994,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2.25</v>
       </c>
@@ -890,7 +1010,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -906,7 +1026,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -922,7 +1042,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -932,7 +1052,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -942,7 +1062,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -952,7 +1072,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -962,7 +1082,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -972,7 +1092,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -982,7 +1102,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -992,7 +1112,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1002,7 +1122,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1012,7 +1132,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1022,7 +1142,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1032,7 +1152,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1042,7 +1162,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1052,7 +1172,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1062,7 +1182,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1072,7 +1192,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1082,7 +1202,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1092,7 +1212,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E430AF63-5E5A-439A-BB3E-7DCDBA1DC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E430AF63-5E5A-439A-BB3E-7DCDBA1DC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE6F478D-19AA-4EB8-8110-639FE7620E0E}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="3112" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -540,12 +540,12 @@
         <v>44643</v>
       </c>
       <c r="K5">
-        <f>IF(C13&lt;&gt;0,DAYS360($F$1,C13),0)</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="L5">
-        <f>L4-B13</f>
-        <v>136.30000000000001</v>
+        <f t="shared" si="1"/>
+        <v>138.41999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -559,12 +559,12 @@
         <v>44643</v>
       </c>
       <c r="K6">
-        <f>IF(C14&lt;&gt;0,DAYS360($F$1,C14),0)</f>
-        <v>38</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="L6">
-        <f>L5-B14</f>
-        <v>131.5</v>
+        <f t="shared" si="1"/>
+        <v>137.58999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -578,12 +578,12 @@
         <v>44643</v>
       </c>
       <c r="K7">
-        <f>IF(C15&lt;&gt;0,DAYS360($F$1,C15),0)</f>
-        <v>43</v>
+        <f t="shared" si="0"/>
+        <v>31</v>
       </c>
       <c r="L7">
-        <f>L6-B15</f>
-        <v>127.5</v>
+        <f t="shared" si="1"/>
+        <v>137.06999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -602,7 +602,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>127.38</v>
+        <v>136.94999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -621,7 +621,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>127.21</v>
+        <v>136.77999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -640,7 +640,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>126.71</v>
+        <v>136.27999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -659,7 +659,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>126.21</v>
+        <v>135.77999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -678,7 +678,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>122.11</v>
+        <v>131.67999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -691,13 +691,13 @@
       <c r="C13" s="1">
         <v>44650</v>
       </c>
-      <c r="K13" t="e">
-        <f>IF(#REF!&lt;&gt;0,DAYS360($F$1,#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L13" t="e">
-        <f>L12-#REF!</f>
-        <v>#REF!</v>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>129.47999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -710,13 +710,13 @@
       <c r="C14" s="1">
         <v>44650</v>
       </c>
-      <c r="K14" t="e">
-        <f>IF(#REF!&lt;&gt;0,DAYS360($F$1,#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L14" t="e">
-        <f>L13-#REF!</f>
-        <v>#REF!</v>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>124.67999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -729,13 +729,13 @@
       <c r="C15" s="1">
         <v>44656</v>
       </c>
-      <c r="K15" t="e">
-        <f>IF(#REF!&lt;&gt;0,DAYS360($F$1,#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" t="e">
-        <f>L14-#REF!</f>
-        <v>#REF!</v>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>120.67999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -748,13 +748,13 @@
       <c r="C16" s="1">
         <v>44656</v>
       </c>
-      <c r="K16" t="e">
-        <f>IF(#REF!&lt;&gt;0,DAYS360($F$1,#REF!),0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" t="e">
-        <f>L15-#REF!</f>
-        <v>#REF!</v>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>114.67999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -771,9 +771,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="L17" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -781,9 +781,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -791,9 +791,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
@@ -801,9 +801,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -811,9 +811,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -821,9 +821,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
@@ -831,9 +831,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
@@ -841,9 +841,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
@@ -851,9 +851,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
@@ -861,9 +861,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>111.67999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E430AF63-5E5A-439A-BB3E-7DCDBA1DC28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE6F478D-19AA-4EB8-8110-639FE7620E0E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E80426-73A6-4941-96F7-51D112E0F632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Main + categories</t>
+  </si>
+  <si>
+    <t>Profil interface med settings</t>
   </si>
 </sst>
 </file>
@@ -426,19 +429,19 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -470,7 +473,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2</v>
       </c>
@@ -494,7 +497,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -510,7 +513,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -529,7 +532,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -548,7 +551,7 @@
         <v>138.41999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -567,7 +570,7 @@
         <v>137.58999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -586,7 +589,7 @@
         <v>137.06999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -605,7 +608,7 @@
         <v>136.94999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -624,7 +627,7 @@
         <v>136.77999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -643,7 +646,7 @@
         <v>136.27999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -662,7 +665,7 @@
         <v>135.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -681,7 +684,7 @@
         <v>131.67999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -700,7 +703,7 @@
         <v>129.47999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -719,7 +722,7 @@
         <v>124.67999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -738,7 +741,7 @@
         <v>120.67999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -757,7 +760,7 @@
         <v>114.67999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -776,101 +779,114 @@
         <v>111.67999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44657</v>
+      </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105.67999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105.67999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105.67999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105.67999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105.67999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105.67999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105.67999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+        <v>105.67999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
+        <v>105.67999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" display="https://github.com/AJungersen/DDU-Eksamensprojekt/issues/38" xr:uid="{9788682B-3B73-490E-9B4D-71A3D4143237}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -882,15 +898,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -922,7 +938,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -946,7 +962,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -962,7 +978,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -978,7 +994,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2.0499999999999998</v>
       </c>
@@ -994,7 +1010,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2.25</v>
       </c>
@@ -1010,7 +1026,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -1026,7 +1042,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -1042,7 +1058,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1052,7 +1068,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1062,7 +1078,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1072,7 +1088,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1082,7 +1098,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1092,7 +1108,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1102,7 +1118,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1112,7 +1128,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1122,7 +1138,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1132,7 +1148,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1142,7 +1158,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1152,7 +1168,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1162,7 +1178,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1172,7 +1188,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1182,7 +1198,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1192,7 +1208,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1202,7 +1218,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1212,7 +1228,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E80426-73A6-4941-96F7-51D112E0F632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4801DE3E-7447-427E-9AC8-8E3811F72CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Profil interface med settings</t>
+  </si>
+  <si>
+    <t>Dataindsættelse vare</t>
   </si>
 </sst>
 </file>
@@ -429,19 +432,19 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -473,7 +476,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>2</v>
       </c>
@@ -497,7 +500,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -513,7 +516,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -532,7 +535,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -551,7 +554,7 @@
         <v>138.41999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -570,7 +573,7 @@
         <v>137.58999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -589,7 +592,7 @@
         <v>137.06999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -608,7 +611,7 @@
         <v>136.94999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -627,7 +630,7 @@
         <v>136.77999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -646,7 +649,7 @@
         <v>136.27999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -665,7 +668,7 @@
         <v>135.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -684,7 +687,7 @@
         <v>131.67999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -703,7 +706,7 @@
         <v>129.47999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -722,7 +725,7 @@
         <v>124.67999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -741,7 +744,7 @@
         <v>120.67999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -760,7 +763,7 @@
         <v>114.67999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -779,7 +782,7 @@
         <v>111.67999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -798,84 +801,93 @@
         <v>105.67999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>4.2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44657</v>
+      </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>101.47999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>101.47999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+        <v>101.47999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>101.47999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>101.47999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>101.47999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>101.47999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
+        <v>101.47999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -898,15 +910,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -938,7 +950,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -962,7 +974,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -978,7 +990,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -994,7 +1006,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2.0499999999999998</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2.25</v>
       </c>
@@ -1026,7 +1038,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -1042,7 +1054,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1068,7 +1080,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1078,7 +1090,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1088,7 +1100,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1098,7 +1110,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1108,7 +1120,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1118,7 +1130,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1128,7 +1140,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1138,7 +1150,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1148,7 +1160,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1158,7 +1170,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1168,7 +1180,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1178,7 +1190,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1188,7 +1200,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1198,7 +1210,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1208,7 +1220,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1218,7 +1230,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1228,7 +1240,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4801DE3E-7447-427E-9AC8-8E3811F72CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC445D5D-E5A6-4710-A201-53208BA83FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <v>44614</v>
+        <v>44642</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -489,11 +489,11 @@
       <c r="F2" s="2"/>
       <c r="G2">
         <f>DAYS360(F1,H1)</f>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="K2">
         <f>IF(C2&lt;&gt;0,DAYS360($F$1,C2),0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <f>L1-B2</f>
@@ -509,7 +509,7 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L26" si="1">L2-B3</f>
@@ -528,7 +528,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
@@ -547,7 +547,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
@@ -566,7 +566,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
@@ -585,7 +585,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
@@ -623,7 +623,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -680,7 +680,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -737,7 +737,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -756,7 +756,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
@@ -794,7 +794,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -906,16 +906,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <v>44614</v>
+        <v>44642</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -963,11 +963,11 @@
       <c r="F2" s="2"/>
       <c r="G2">
         <f>DAYS360(F1,H1)</f>
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="K2">
         <f>IF(C2&lt;&gt;0,DAYS360($F$1,C2),0)</f>
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <f>L1-B2</f>
@@ -983,7 +983,7 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L26" si="1">L2-B3</f>
@@ -999,7 +999,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC445D5D-E5A6-4710-A201-53208BA83FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018A5BA-2262-4310-AB01-50767FACB0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -431,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -497,7 +497,7 @@
       </c>
       <c r="L2">
         <f>L1-B2</f>
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L26" si="1">L2-B3</f>
-        <v>141.5</v>
+        <v>165.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -532,7 +532,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>138.5</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -551,7 +551,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>138.41999999999999</v>
+        <v>162.41999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -570,7 +570,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>137.58999999999997</v>
+        <v>161.58999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
-        <v>137.06999999999996</v>
+        <v>161.06999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -608,7 +608,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
-        <v>136.94999999999996</v>
+        <v>160.94999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>136.77999999999997</v>
+        <v>160.77999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -646,7 +646,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>136.27999999999997</v>
+        <v>160.27999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>135.77999999999997</v>
+        <v>159.77999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>131.67999999999998</v>
+        <v>155.67999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>129.47999999999999</v>
+        <v>153.47999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>124.67999999999999</v>
+        <v>148.67999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>120.67999999999999</v>
+        <v>144.67999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>114.67999999999999</v>
+        <v>138.67999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>111.67999999999999</v>
+        <v>135.67999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -798,7 +798,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>105.67999999999999</v>
+        <v>129.67999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>125.47999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -827,7 +827,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>125.47999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -837,7 +837,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>125.47999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>125.47999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -857,7 +857,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>125.47999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>125.47999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>125.47999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>125.47999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -906,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4801DE3E-7447-427E-9AC8-8E3811F72CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4801DE3E-7447-427E-9AC8-8E3811F72CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2E2980C-B611-411C-BDF4-6B746B2FBF35}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -108,16 +108,26 @@
   </si>
   <si>
     <t>Dataindsættelse vare</t>
+  </si>
+  <si>
+    <t>Database opret vare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,12 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,19 +443,19 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -476,7 +487,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -500,7 +511,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -516,7 +527,7 @@
         <v>141.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -535,7 +546,7 @@
         <v>138.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -554,7 +565,7 @@
         <v>138.41999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -573,7 +584,7 @@
         <v>137.58999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -592,7 +603,7 @@
         <v>137.06999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -611,7 +622,7 @@
         <v>136.94999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -630,7 +641,7 @@
         <v>136.77999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -649,7 +660,7 @@
         <v>136.27999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -668,7 +679,7 @@
         <v>135.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -687,7 +698,7 @@
         <v>131.67999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -706,7 +717,7 @@
         <v>129.47999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -725,7 +736,7 @@
         <v>124.67999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -744,7 +755,7 @@
         <v>120.67999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -763,7 +774,7 @@
         <v>114.67999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -782,7 +793,7 @@
         <v>111.67999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -801,7 +812,7 @@
         <v>105.67999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -820,74 +831,83 @@
         <v>101.47999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44680</v>
+      </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97.38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97.38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97.38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97.38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>97.38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>101.47999999999999</v>
+        <v>97.38</v>
       </c>
     </row>
   </sheetData>
@@ -910,15 +930,15 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -950,7 +970,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -974,7 +994,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -990,7 +1010,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -1006,7 +1026,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2.0499999999999998</v>
       </c>
@@ -1022,7 +1042,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2.25</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -1070,7 +1090,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1080,7 +1100,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1090,7 +1110,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1100,7 +1120,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1110,7 +1130,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1120,7 +1140,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1130,7 +1150,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1140,7 +1160,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1150,7 +1170,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1160,7 +1180,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1170,7 +1190,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1180,7 +1200,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1190,7 +1210,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1200,7 +1220,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1210,7 +1230,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1220,7 +1240,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1230,7 +1250,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1240,7 +1260,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4018A5BA-2262-4310-AB01-50767FACB0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4018A5BA-2262-4310-AB01-50767FACB0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68A1A41-5C53-484C-AE9F-838F6D0F30CD}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -108,16 +108,26 @@
   </si>
   <si>
     <t>Dataindsættelse vare</t>
+  </si>
+  <si>
+    <t>Database opret vare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,12 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,19 +443,19 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -476,7 +487,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -500,7 +511,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -516,7 +527,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -535,7 +546,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -554,7 +565,7 @@
         <v>162.41999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -573,7 +584,7 @@
         <v>161.58999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -592,7 +603,7 @@
         <v>161.06999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -611,7 +622,7 @@
         <v>160.94999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -630,7 +641,7 @@
         <v>160.77999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -649,7 +660,7 @@
         <v>160.27999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -668,7 +679,7 @@
         <v>159.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -687,7 +698,7 @@
         <v>155.67999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -706,7 +717,7 @@
         <v>153.47999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -725,7 +736,7 @@
         <v>148.67999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -744,7 +755,7 @@
         <v>144.67999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -763,7 +774,7 @@
         <v>138.67999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -782,7 +793,7 @@
         <v>135.67999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -801,7 +812,7 @@
         <v>129.67999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -820,74 +831,83 @@
         <v>125.47999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44680</v>
+      </c>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>125.47999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>125.47999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>125.47999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>125.47999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>125.47999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>125.47999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>125.47999999999998</v>
+        <v>121.37999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -910,15 +930,15 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -950,7 +970,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -974,7 +994,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -990,7 +1010,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -1006,7 +1026,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2.0499999999999998</v>
       </c>
@@ -1022,7 +1042,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2.25</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -1054,7 +1074,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -1070,7 +1090,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1080,7 +1100,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1090,7 +1110,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1100,7 +1120,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1110,7 +1130,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1120,7 +1140,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1130,7 +1150,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1140,7 +1160,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1150,7 +1170,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1160,7 +1180,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1170,7 +1190,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1180,7 +1200,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1190,7 +1210,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1200,7 +1220,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1210,7 +1230,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1220,7 +1240,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1230,7 +1250,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1240,7 +1260,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{4018A5BA-2262-4310-AB01-50767FACB0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68A1A41-5C53-484C-AE9F-838F6D0F30CD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93451663-E915-4E81-BB91-42522BBFCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -156,10 +156,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,20 +442,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -487,17 +487,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>44642</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3"/>
       <c r="G2">
         <f>DAYS360(F1,H1)</f>
         <v>53</v>
@@ -511,7 +511,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -527,7 +527,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -546,7 +546,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -565,7 +565,7 @@
         <v>162.41999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -584,7 +584,7 @@
         <v>161.58999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -603,7 +603,7 @@
         <v>161.06999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -622,7 +622,7 @@
         <v>160.94999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -641,7 +641,7 @@
         <v>160.77999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -660,7 +660,7 @@
         <v>160.27999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -679,7 +679,7 @@
         <v>159.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -698,7 +698,7 @@
         <v>155.67999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -717,7 +717,7 @@
         <v>153.47999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -736,7 +736,7 @@
         <v>148.67999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -755,7 +755,7 @@
         <v>144.67999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -774,7 +774,7 @@
         <v>138.67999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -793,7 +793,7 @@
         <v>135.67999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -812,7 +812,7 @@
         <v>129.67999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -831,11 +831,11 @@
         <v>125.47999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>4.0999999999999996</v>
       </c>
       <c r="C20" s="1">
@@ -850,7 +850,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -890,7 +890,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -926,19 +926,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -970,17 +970,17 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>1.6</v>
       </c>
       <c r="C2" s="1">
         <v>44650</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="3"/>
       <c r="G2">
         <f>DAYS360(F1,H1)</f>
         <v>53</v>
@@ -994,7 +994,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -1026,7 +1026,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>2.0499999999999998</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2.25</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -1090,184 +1090,190 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>3.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44678</v>
+      </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>96.350000000000009</v>
+        <v>93.15</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93451663-E915-4E81-BB91-42522BBFCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36595BE9-1B98-40EB-A620-618208A150F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="3112" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Database opret vare</t>
+  </si>
+  <si>
+    <t>Medarbejderforside med newsfeed</t>
+  </si>
+  <si>
+    <t>Inboxinterface med både at åbne og skrive beskeder</t>
   </si>
 </sst>
 </file>
@@ -442,20 +448,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -487,7 +493,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -511,7 +517,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -527,7 +533,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -546,7 +552,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -565,7 +571,7 @@
         <v>162.41999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -584,7 +590,7 @@
         <v>161.58999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -603,7 +609,7 @@
         <v>161.06999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -622,7 +628,7 @@
         <v>160.94999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -641,7 +647,7 @@
         <v>160.77999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -660,7 +666,7 @@
         <v>160.27999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -679,7 +685,7 @@
         <v>159.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -698,7 +704,7 @@
         <v>155.67999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -717,7 +723,7 @@
         <v>153.47999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -736,7 +742,7 @@
         <v>148.67999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -755,7 +761,7 @@
         <v>144.67999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -774,7 +780,7 @@
         <v>138.67999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -793,7 +799,7 @@
         <v>135.67999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -812,7 +818,7 @@
         <v>129.67999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -831,7 +837,7 @@
         <v>125.47999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -850,64 +856,82 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>4.8</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44684</v>
+      </c>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+        <v>116.57999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>8.4</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44685</v>
+      </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108.17999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108.17999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108.17999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108.17999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
+        <v>108.17999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -926,19 +950,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -970,7 +994,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>1.6</v>
       </c>
@@ -994,7 +1018,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>0.95</v>
       </c>
@@ -1010,7 +1034,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>8.1999999999999993</v>
       </c>
@@ -1026,7 +1050,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>2.0499999999999998</v>
       </c>
@@ -1042,7 +1066,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>2.25</v>
       </c>
@@ -1058,7 +1082,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>0.8</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>0.8</v>
       </c>
@@ -1090,7 +1114,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3.2</v>
       </c>
@@ -1106,7 +1130,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1116,7 +1140,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1126,7 +1150,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1136,7 +1160,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1146,7 +1170,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1156,7 +1180,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1166,7 +1190,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1176,7 +1200,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1186,7 +1210,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1196,7 +1220,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1206,7 +1230,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1216,7 +1240,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1226,7 +1250,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1236,7 +1260,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1246,7 +1270,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1256,7 +1280,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1266,7 +1290,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93451663-E915-4E81-BB91-42522BBFCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{93451663-E915-4E81-BB91-42522BBFCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC795EE7-31DA-4B2C-857A-15CA69561EC0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>Database opret vare</t>
+  </si>
+  <si>
+    <t>Start dag</t>
+  </si>
+  <si>
+    <t>start dag</t>
   </si>
 </sst>
 </file>
@@ -153,10 +159,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,22 +449,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -487,17 +496,17 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>44642</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
       <c r="G2">
         <f>DAYS360(F1,H1)</f>
         <v>53</v>
@@ -511,7 +520,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -519,39 +528,39 @@
         <v>44642</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <f t="shared" ref="K3:K31" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L26" si="1">L2-B3</f>
+        <f>L2-B3</f>
         <v>165.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>44643</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K4" si="1">IF(C4&lt;&gt;0,DAYS360($F$1,C4),0)</f>
         <v>1</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
-        <v>162.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <f>L3-B4</f>
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>0.08</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>44643</v>
@@ -561,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>162.41999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <f>L3-B5</f>
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="C6" s="1">
         <v>44643</v>
@@ -580,16 +589,16 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
-        <v>161.58999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" ref="L6:L31" si="2">L5-B6</f>
+        <v>162.41999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.52</v>
+        <v>0.83</v>
       </c>
       <c r="C7" s="1">
         <v>44643</v>
@@ -599,16 +608,16 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
-        <v>161.06999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>161.58999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.12</v>
+        <v>0.52</v>
       </c>
       <c r="C8" s="1">
         <v>44643</v>
@@ -618,295 +627,399 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>161.06999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44643</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K25" si="3">IF(C9&lt;&gt;0,DAYS360($F$1,C9),0)</f>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" ref="L9:L25" si="4">L8-B9</f>
         <v>160.94999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0.17</v>
-      </c>
-      <c r="C9" s="1">
-        <v>44650</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>160.77999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>44650</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
-        <v>160.27999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>160.94999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="C11" s="1">
         <v>44650</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
-        <v>159.77999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>160.77999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>4.0999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="C12" s="1">
         <v>44650</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
-        <v>155.67999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>160.27999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>2.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="1">
         <v>44650</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
-        <v>153.47999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="4"/>
+        <v>159.77999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C14" s="1">
         <v>44650</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
+        <v>155.67999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>153.47999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>4.8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44650</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
         <v>148.67999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44656</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>148.67999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B18">
         <v>4</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C18" s="1">
         <v>44656</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="0"/>
+      <c r="K18">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
+      <c r="L18">
+        <f t="shared" si="4"/>
         <v>144.67999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B19">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C19" s="1">
         <v>44656</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
+      <c r="K19">
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
+      <c r="L19">
+        <f t="shared" si="4"/>
         <v>138.67999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44657</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>138.67999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C21" s="1">
         <v>44657</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
+      <c r="K21">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
+      <c r="L21">
+        <f t="shared" si="4"/>
         <v>135.67999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <v>6</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C22" s="1">
         <v>44657</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
+      <c r="K22">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
+      <c r="L22">
+        <f t="shared" si="4"/>
         <v>129.67999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B19">
+      <c r="B23">
         <v>4.2</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C23" s="1">
         <v>44657</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
+      <c r="K23">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
+      <c r="L23">
+        <f t="shared" si="4"/>
         <v>125.47999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44680</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>125.47999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B25" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C25" s="1">
         <v>44680</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
+      <c r="K25">
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
+      <c r="L25">
+        <f t="shared" si="4"/>
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44685</v>
+      </c>
       <c r="K26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="2"/>
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="2"/>
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="2"/>
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>121.37999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
         <v>121.37999999999998</v>
       </c>
     </row>
@@ -915,7 +1028,7 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="https://github.com/AJungersen/DDU-Eksamensprojekt/issues/38" xr:uid="{9788682B-3B73-490E-9B4D-71A3D4143237}"/>
+    <hyperlink ref="A22" r:id="rId1" display="https://github.com/AJungersen/DDU-Eksamensprojekt/issues/38" xr:uid="{9788682B-3B73-490E-9B4D-71A3D4143237}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -924,21 +1037,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -970,17 +1083,20 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
       <c r="B2">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>44650</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="4"/>
       <c r="G2">
         <f>DAYS360(F1,H1)</f>
         <v>53</v>
@@ -991,60 +1107,68 @@
       </c>
       <c r="L2">
         <f>L1-B2</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>1.6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44650</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <v>8</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" si="1">L2-B3</f>
         <v>111.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>0.95</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
         <v>44652</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K26" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
-        <v>9</v>
-      </c>
-      <c r="L3">
-        <f t="shared" ref="L3:L26" si="1">L2-B3</f>
-        <v>110.45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C4" s="1">
-        <v>44656</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>102.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>111.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>2.0499999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="C5" s="1">
-        <v>44656</v>
+        <v>44652</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>100.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
       <c r="B6">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
         <v>44656</v>
@@ -1055,224 +1179,300 @@
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
+        <v>110.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44656</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K30" si="2">IF(C7&lt;&gt;0,DAYS360($F$1,C7),0)</f>
+        <v>13</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L30" si="3">L6-B7</f>
+        <v>102.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>44656</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>2.25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44656</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
         <v>97.95</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44657</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>97.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B11">
         <v>0.8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C11" s="1">
         <v>44657</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
+      <c r="K11">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
+      <c r="L11">
+        <f t="shared" si="3"/>
         <v>97.15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B12">
         <v>0.8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C12" s="1">
         <v>44657</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
+      <c r="K12">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
+      <c r="L12">
+        <f t="shared" si="3"/>
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44678</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>96.350000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B14">
         <v>3.2</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C14" s="1">
         <v>44678</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
+      <c r="K14">
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="K14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="L14">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="3"/>
+        <v>93.15</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="3"/>
         <v>93.15</v>
       </c>
     </row>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{93451663-E915-4E81-BB91-42522BBFCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC795EE7-31DA-4B2C-857A-15CA69561EC0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -455,16 +455,16 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="1" max="1" width="33.26953125" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -496,7 +496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2">
         <v>2</v>
       </c>
@@ -520,7 +520,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -536,7 +536,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -555,7 +555,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -574,7 +574,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -593,7 +593,7 @@
         <v>162.41999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -612,7 +612,7 @@
         <v>161.58999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -631,7 +631,7 @@
         <v>161.06999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -650,7 +650,7 @@
         <v>160.94999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -669,7 +669,7 @@
         <v>160.94999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -688,7 +688,7 @@
         <v>160.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -707,7 +707,7 @@
         <v>160.27999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -726,7 +726,7 @@
         <v>159.77999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -745,7 +745,7 @@
         <v>155.67999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -764,7 +764,7 @@
         <v>153.47999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -783,7 +783,7 @@
         <v>148.67999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -802,7 +802,7 @@
         <v>148.67999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -821,7 +821,7 @@
         <v>144.67999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -840,7 +840,7 @@
         <v>138.67999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -859,7 +859,7 @@
         <v>138.67999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -878,7 +878,7 @@
         <v>135.67999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -897,7 +897,7 @@
         <v>129.67999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -916,7 +916,7 @@
         <v>125.47999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -935,7 +935,7 @@
         <v>125.47999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -954,7 +954,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -973,7 +973,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1039,19 +1039,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>1.6</v>
       </c>
@@ -1120,15 +1120,15 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="K3">
-        <f t="shared" ref="K3:K8" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <f t="shared" ref="K3:K6" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
         <v>8</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L8" si="1">L2-B3</f>
+        <f t="shared" ref="L3:L6" si="1">L2-B3</f>
         <v>111.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>0.95</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>8.1999999999999993</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>2.0499999999999998</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>2.25</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0.8</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>0.8</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>3.2</v>
       </c>
@@ -1316,164 +1316,170 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>5.2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44684</v>
+      </c>
       <c r="K15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="K16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>93.15</v>
-      </c>
-    </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.45">
+        <v>87.95</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12" x14ac:dyDescent="0.35">
       <c r="K30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>93.15</v>
+        <v>87.95</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruger\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8886EF90-00AF-4E1A-94FA-4F354391090F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>start dag</t>
+  </si>
+  <si>
+    <t>Database profil</t>
+  </si>
+  <si>
+    <t>Lovgivning</t>
+  </si>
+  <si>
+    <t>Database main</t>
+  </si>
+  <si>
+    <t>Algoritme vareforslag</t>
+  </si>
+  <si>
+    <t>UI Medarbejder forside med newsfeed</t>
+  </si>
+  <si>
+    <t>UI Check out interface med kurv</t>
   </si>
 </sst>
 </file>
@@ -449,22 +467,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="33.265625" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -496,7 +514,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -520,7 +538,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -536,7 +554,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -555,7 +573,7 @@
         <v>165.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -574,7 +592,7 @@
         <v>162.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -593,7 +611,7 @@
         <v>162.41999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -612,7 +630,7 @@
         <v>161.58999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -631,7 +649,7 @@
         <v>161.06999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -650,7 +668,7 @@
         <v>160.94999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -669,7 +687,7 @@
         <v>160.94999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -688,7 +706,7 @@
         <v>160.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -707,7 +725,7 @@
         <v>160.27999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -726,7 +744,7 @@
         <v>159.77999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -745,7 +763,7 @@
         <v>155.67999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -764,7 +782,7 @@
         <v>153.47999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -783,7 +801,7 @@
         <v>148.67999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -802,7 +820,7 @@
         <v>148.67999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -821,7 +839,7 @@
         <v>144.67999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -840,7 +858,7 @@
         <v>138.67999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -859,7 +877,7 @@
         <v>138.67999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -878,7 +896,7 @@
         <v>135.67999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -897,7 +915,7 @@
         <v>129.67999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -916,7 +934,7 @@
         <v>125.47999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -935,7 +953,7 @@
         <v>125.47999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -954,7 +972,7 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -973,54 +991,279 @@
         <v>121.37999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0.26</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44685</v>
+      </c>
       <c r="K27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>121.11999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>4.2</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44685</v>
+      </c>
       <c r="K28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>116.91999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44685</v>
+      </c>
       <c r="K29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>106.71999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44685</v>
+      </c>
       <c r="K30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>121.37999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>100.71999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>4.8</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44685</v>
+      </c>
       <c r="K31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="K31:K40" si="5">IF(C31&lt;&gt;0,DAYS360($F$1,C31),0)</f>
+        <v>42</v>
       </c>
       <c r="L31">
-        <f t="shared" si="2"/>
-        <v>121.37999999999998</v>
+        <f t="shared" ref="L31:L40" si="6">L30-B31</f>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K36">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="38" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K38">
+        <f t="shared" ref="K38:K49" si="7">IF(C38&lt;&gt;0,DAYS360($F$1,C38),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" ref="L38:L49" si="8">L37-B38</f>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="44" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="48" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.45">
+      <c r="K49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="8"/>
+        <v>95.919999999999973</v>
       </c>
     </row>
   </sheetData>
@@ -1039,19 +1282,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1326,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1353,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.6</v>
       </c>
@@ -1128,7 +1371,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1147,7 +1390,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>0.95</v>
       </c>
@@ -1163,7 +1406,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1425,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>8.1999999999999993</v>
       </c>
@@ -1198,7 +1441,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2.0499999999999998</v>
       </c>
@@ -1214,7 +1457,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>2.25</v>
       </c>
@@ -1230,7 +1473,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1492,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>0.8</v>
       </c>
@@ -1265,7 +1508,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>0.8</v>
       </c>
@@ -1281,7 +1524,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1300,7 +1543,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>3.2</v>
       </c>
@@ -1316,7 +1559,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>5.2</v>
       </c>
@@ -1332,154 +1575,172 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44685</v>
+      </c>
       <c r="K16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L16">
         <f t="shared" si="3"/>
         <v>87.95</v>
       </c>
     </row>
-    <row r="17" spans="11:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>3.2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44685</v>
+      </c>
       <c r="K17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L17">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="18" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="19" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L19">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="20" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L20">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="21" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="22" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="23" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="24" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="25" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L25">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="26" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L26">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="27" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L27">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="28" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L28">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="29" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L29">
         <f t="shared" si="3"/>
-        <v>87.95</v>
-      </c>
-    </row>
-    <row r="30" spans="11:12" x14ac:dyDescent="0.35">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30">
         <f t="shared" si="3"/>
-        <v>87.95</v>
+        <v>84.75</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8886EF90-00AF-4E1A-94FA-4F354391090F}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6AC3F78-4704-4663-ABBE-AA4800225094}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -469,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -546,7 +546,7 @@
         <v>44642</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K31" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <f t="shared" ref="K3:K30" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
         <v>0</v>
       </c>
       <c r="L3">
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <f t="shared" ref="L6:L31" si="2">L5-B6</f>
+        <f t="shared" ref="L6:L30" si="2">L5-B6</f>
         <v>162.41999999999999</v>
       </c>
     </row>
@@ -1078,11 +1078,11 @@
         <v>44685</v>
       </c>
       <c r="K31">
-        <f t="shared" ref="K31:K40" si="5">IF(C31&lt;&gt;0,DAYS360($F$1,C31),0)</f>
+        <f t="shared" ref="K31:K37" si="5">IF(C31&lt;&gt;0,DAYS360($F$1,C31),0)</f>
         <v>42</v>
       </c>
       <c r="L31">
-        <f t="shared" ref="L31:L40" si="6">L30-B31</f>
+        <f t="shared" ref="L31:L37" si="6">L30-B31</f>
         <v>95.919999999999973</v>
       </c>
     </row>
@@ -1280,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1433,11 +1433,11 @@
         <v>44656</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K30" si="2">IF(C7&lt;&gt;0,DAYS360($F$1,C7),0)</f>
+        <f t="shared" ref="K7:K31" si="2">IF(C7&lt;&gt;0,DAYS360($F$1,C7),0)</f>
         <v>13</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L30" si="3">L6-B7</f>
+        <f t="shared" ref="L7:L31" si="3">L6-B7</f>
         <v>102.25</v>
       </c>
     </row>
@@ -1551,195 +1551,214 @@
         <v>44678</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K14:K31" si="4">IF(C14&lt;&gt;0,DAYS360($F$1,C14),0)</f>
         <v>35</v>
       </c>
       <c r="L14">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L14:L31" si="5">L13-B14</f>
         <v>93.15</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
       <c r="B15">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>44684</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="L15">
-        <f t="shared" si="3"/>
-        <v>87.95</v>
+        <f t="shared" si="5"/>
+        <v>93.15</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
       <c r="B16">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="C16" s="1">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="L16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87.95</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>44685</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="L17">
-        <f t="shared" si="3"/>
-        <v>84.75</v>
+        <f t="shared" si="5"/>
+        <v>87.95</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>3.2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44685</v>
+      </c>
       <c r="K18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
       <c r="L18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="5"/>
         <v>84.75</v>
       </c>
     </row>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6AC3F78-4704-4663-ABBE-AA4800225094}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30103F6A-3A2A-45BE-A76C-7585EB433071}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -135,6 +136,30 @@
   </si>
   <si>
     <t>UI Check out interface med kurv</t>
+  </si>
+  <si>
+    <t>Vareoversigt</t>
+  </si>
+  <si>
+    <t>Search funktion</t>
+  </si>
+  <si>
+    <t>indsæt billeder</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Kundeforside med oversigt over kategorier</t>
+  </si>
+  <si>
+    <t>UI vagtplan interface</t>
+  </si>
+  <si>
+    <t>Dage</t>
+  </si>
+  <si>
+    <t>moduler på given dag</t>
   </si>
 </sst>
 </file>
@@ -469,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1087,173 +1112,254 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44690</v>
+      </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L32">
         <f t="shared" si="6"/>
         <v>95.919999999999973</v>
       </c>
     </row>
-    <row r="33" spans="11:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>3.1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44690</v>
+      </c>
       <c r="K33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L33">
         <f t="shared" si="6"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12" x14ac:dyDescent="0.45">
+        <v>92.819999999999979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>1.9</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44690</v>
+      </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L34">
         <f t="shared" si="6"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="35" spans="11:12" x14ac:dyDescent="0.45">
+        <v>90.919999999999973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44690</v>
+      </c>
       <c r="K35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L35">
         <f t="shared" si="6"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="36" spans="11:12" x14ac:dyDescent="0.45">
+        <v>90.59999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44690</v>
+      </c>
       <c r="K36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L36">
         <f t="shared" si="6"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="37" spans="11:12" x14ac:dyDescent="0.45">
+        <v>88.049999999999983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44690</v>
+      </c>
       <c r="K37">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L37">
         <f t="shared" si="6"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="38" spans="11:12" x14ac:dyDescent="0.45">
+        <v>85.049999999999983</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>0.26</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44690</v>
+      </c>
       <c r="K38">
         <f t="shared" ref="K38:K49" si="7">IF(C38&lt;&gt;0,DAYS360($F$1,C38),0)</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L38">
         <f t="shared" ref="L38:L49" si="8">L37-B38</f>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="39" spans="11:12" x14ac:dyDescent="0.45">
+        <v>84.789999999999978</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>0.65</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44690</v>
+      </c>
       <c r="K39">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L39">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="40" spans="11:12" x14ac:dyDescent="0.45">
+        <v>84.139999999999972</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>7.2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44690</v>
+      </c>
       <c r="K40">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L40">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="41" spans="11:12" x14ac:dyDescent="0.45">
+        <v>76.939999999999969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K41">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L41">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="42" spans="11:12" x14ac:dyDescent="0.45">
+        <v>76.939999999999969</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K42">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L42">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="43" spans="11:12" x14ac:dyDescent="0.45">
+        <v>76.939999999999969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K43">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L43">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="44" spans="11:12" x14ac:dyDescent="0.45">
+        <v>76.939999999999969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K44">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L44">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="45" spans="11:12" x14ac:dyDescent="0.45">
+        <v>76.939999999999969</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K45">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="46" spans="11:12" x14ac:dyDescent="0.45">
+        <v>76.939999999999969</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K46">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="47" spans="11:12" x14ac:dyDescent="0.45">
+        <v>76.939999999999969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
-      </c>
-    </row>
-    <row r="48" spans="11:12" x14ac:dyDescent="0.45">
+        <v>76.939999999999969</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
+        <v>76.939999999999969</v>
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.45">
@@ -1263,7 +1369,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>95.919999999999973</v>
+        <v>76.939999999999969</v>
       </c>
     </row>
   </sheetData>
@@ -1282,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1433,11 +1539,11 @@
         <v>44656</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K31" si="2">IF(C7&lt;&gt;0,DAYS360($F$1,C7),0)</f>
+        <f t="shared" ref="K7:K13" si="2">IF(C7&lt;&gt;0,DAYS360($F$1,C7),0)</f>
         <v>13</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L31" si="3">L6-B7</f>
+        <f t="shared" ref="L7:L13" si="3">L6-B7</f>
         <v>102.25</v>
       </c>
     </row>
@@ -1768,4 +1874,328 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6142F689-5783-4EF1-9E18-E8A2D7FE970A}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>44642</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>44696</v>
+      </c>
+      <c r="I1">
+        <f>A2-$E$1</f>
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <f>B2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2">
+        <f>DAYS360(E1,G1)</f>
+        <v>53</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I18" si="0">A3-$E$1</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>J1+B3</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J17" si="1">J2+B4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30103F6A-3A2A-45BE-A76C-7585EB433071}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031F97DB-DA10-4A4E-AEED-E8F3C6B24B19}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -494,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -560,7 +560,7 @@
       </c>
       <c r="L2">
         <f>L1-B2</f>
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
       </c>
       <c r="L3">
         <f>L2-B3</f>
-        <v>165.5</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -595,7 +595,7 @@
       </c>
       <c r="L4">
         <f>L3-B4</f>
-        <v>165.5</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -614,7 +614,7 @@
       </c>
       <c r="L5">
         <f>L3-B5</f>
-        <v>162.5</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -633,7 +633,7 @@
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L30" si="2">L5-B6</f>
-        <v>162.41999999999999</v>
+        <v>170.42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -652,7 +652,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>161.58999999999997</v>
+        <v>169.58999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -671,7 +671,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>161.06999999999996</v>
+        <v>169.06999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -690,7 +690,7 @@
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L25" si="4">L8-B9</f>
-        <v>160.94999999999996</v>
+        <v>168.94999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -709,7 +709,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>160.94999999999996</v>
+        <v>168.94999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -728,7 +728,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>160.77999999999997</v>
+        <v>168.77999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -747,7 +747,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>160.27999999999997</v>
+        <v>168.27999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -766,7 +766,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>159.77999999999997</v>
+        <v>167.77999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -785,7 +785,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>155.67999999999998</v>
+        <v>163.67999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -804,7 +804,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>153.47999999999999</v>
+        <v>161.47999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -823,7 +823,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>148.67999999999998</v>
+        <v>156.67999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -842,7 +842,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>148.67999999999998</v>
+        <v>156.67999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -861,7 +861,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>144.67999999999998</v>
+        <v>152.67999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -880,7 +880,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>138.67999999999998</v>
+        <v>146.67999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
@@ -899,7 +899,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="4"/>
-        <v>138.67999999999998</v>
+        <v>146.67999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -918,7 +918,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>135.67999999999998</v>
+        <v>143.67999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -937,7 +937,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="4"/>
-        <v>129.67999999999998</v>
+        <v>137.67999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
@@ -956,7 +956,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>125.47999999999998</v>
+        <v>133.47999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
@@ -975,7 +975,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>125.47999999999998</v>
+        <v>133.47999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -994,7 +994,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>121.37999999999998</v>
+        <v>129.38</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>121.37999999999998</v>
+        <v>129.38</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>121.11999999999998</v>
+        <v>129.12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>116.91999999999997</v>
+        <v>124.92</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>106.71999999999997</v>
+        <v>114.72</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>100.71999999999997</v>
+        <v>108.72</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="L31">
         <f t="shared" ref="L31:L37" si="6">L30-B31</f>
-        <v>95.919999999999973</v>
+        <v>103.92</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="6"/>
-        <v>95.919999999999973</v>
+        <v>103.92</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="6"/>
-        <v>92.819999999999979</v>
+        <v>100.82000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="6"/>
-        <v>90.919999999999973</v>
+        <v>98.92</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="6"/>
-        <v>90.59999999999998</v>
+        <v>98.600000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="6"/>
-        <v>88.049999999999983</v>
+        <v>96.050000000000011</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="6"/>
-        <v>85.049999999999983</v>
+        <v>93.050000000000011</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="L38">
         <f t="shared" ref="L38:L49" si="8">L37-B38</f>
-        <v>84.789999999999978</v>
+        <v>92.79</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="8"/>
-        <v>84.139999999999972</v>
+        <v>92.14</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.45">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>76.939999999999969</v>
+        <v>84.94</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -1878,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6142F689-5783-4EF1-9E18-E8A2D7FE970A}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1892,7 +1892,7 @@
     <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1916,11 +1916,18 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <f>B2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <f>177-3*B2</f>
+        <v>165</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <f>113-B2</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44642</v>
       </c>
@@ -1936,15 +1943,22 @@
         <v>53</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I18" si="0">A3-$E$1</f>
+        <f>A3-$E$1</f>
         <v>1</v>
       </c>
       <c r="J2">
-        <f>J1+B3</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J1</f>
+        <v>165</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <f>M1</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44643</v>
       </c>
@@ -1952,15 +1966,22 @@
         <v>4</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>I2</f>
+        <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J17" si="1">J2+B4</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J2-3*B3</f>
+        <v>153</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>M2-B3</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44650</v>
       </c>
@@ -1968,15 +1989,22 @@
         <v>4</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>A4-$E$1</f>
+        <v>8</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J3</f>
+        <v>153</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <f>M3</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -1984,15 +2012,22 @@
         <v>4</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>I4</f>
+        <v>8</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J4-3*B4</f>
+        <v>141</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <f>M4-B4</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44656</v>
       </c>
@@ -2000,15 +2035,22 @@
         <v>4</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>A5-$E$1</f>
+        <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J5</f>
+        <v>141</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6" si="0">M5</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44657</v>
       </c>
@@ -2016,15 +2058,22 @@
         <v>3</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <f>I6</f>
+        <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J6-3*B5</f>
+        <v>129</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <f>M6-B5</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44670</v>
       </c>
@@ -2032,15 +2081,22 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>A6-$E$1</f>
+        <v>14</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+        <f t="shared" ref="J8" si="1">J7</f>
+        <v>129</v>
+      </c>
+      <c r="L8">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8" si="2">M7</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44671</v>
       </c>
@@ -2048,15 +2104,22 @@
         <v>4</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <f t="shared" ref="I9" si="3">I8</f>
+        <v>14</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J8-3*B6</f>
+        <v>117</v>
+      </c>
+      <c r="L9">
+        <v>14</v>
+      </c>
+      <c r="M9">
+        <f>M8-B6</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44678</v>
       </c>
@@ -2064,15 +2127,22 @@
         <v>4</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <f>A7-$E$1</f>
+        <v>15</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+        <f t="shared" ref="J10" si="4">J9</f>
+        <v>117</v>
+      </c>
+      <c r="L10">
+        <v>15</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10" si="5">M9</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44680</v>
       </c>
@@ -2080,15 +2150,22 @@
         <v>4</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <f t="shared" ref="I11" si="6">I10</f>
+        <v>15</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J10-3*B7</f>
+        <v>108</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <f>M10-B7</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44684</v>
       </c>
@@ -2096,15 +2173,22 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>A8-$E$1</f>
+        <v>28</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+        <f t="shared" ref="J12" si="7">J11</f>
+        <v>108</v>
+      </c>
+      <c r="L12">
+        <v>28</v>
+      </c>
+      <c r="M12">
+        <f t="shared" ref="M12" si="8">M11</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44685</v>
       </c>
@@ -2112,15 +2196,22 @@
         <v>6</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <f t="shared" ref="I13" si="9">I12</f>
+        <v>28</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J12-3*B8</f>
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+      <c r="M13">
+        <f>M12-B8</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44686</v>
       </c>
@@ -2128,15 +2219,22 @@
         <v>6</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>A9-$E$1</f>
+        <v>29</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <f t="shared" ref="J14" si="10">J13</f>
+        <v>96</v>
+      </c>
+      <c r="L14">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14" si="11">M13</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44687</v>
       </c>
@@ -2144,15 +2242,22 @@
         <v>6</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f t="shared" ref="I15" si="12">I14</f>
+        <v>29</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J14-3*B9</f>
+        <v>84</v>
+      </c>
+      <c r="L15">
+        <v>29</v>
+      </c>
+      <c r="M15">
+        <f>M14-B9</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44690</v>
       </c>
@@ -2160,15 +2265,22 @@
         <v>6</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <f>A10-$E$1</f>
+        <v>36</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+        <f t="shared" ref="J16" si="13">J15</f>
+        <v>84</v>
+      </c>
+      <c r="L16">
+        <v>36</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="14">M15</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44691</v>
       </c>
@@ -2176,20 +2288,345 @@
         <v>6</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" ref="I17" si="15">I16</f>
+        <v>36</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+        <f>J16-3*B10</f>
+        <v>72</v>
+      </c>
+      <c r="L17">
+        <v>36</v>
+      </c>
+      <c r="M17">
+        <f>M16-B10</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44692</v>
       </c>
       <c r="B18">
         <v>3</v>
+      </c>
+      <c r="I18">
+        <f>A11-$E$1</f>
+        <v>38</v>
+      </c>
+      <c r="J18">
+        <f>J17</f>
+        <v>72</v>
+      </c>
+      <c r="L18">
+        <v>38</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ref="M18" si="16">M17</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I19">
+        <f>I18</f>
+        <v>38</v>
+      </c>
+      <c r="J19">
+        <f>J18-3*B11</f>
+        <v>60</v>
+      </c>
+      <c r="L19">
+        <v>38</v>
+      </c>
+      <c r="M19">
+        <f>M18-B11</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I20">
+        <f>A12-$E$1</f>
+        <v>42</v>
+      </c>
+      <c r="J20">
+        <f>J19</f>
+        <v>60</v>
+      </c>
+      <c r="L20">
+        <v>42</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ref="M20" si="17">M19</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I21">
+        <f>I20</f>
+        <v>42</v>
+      </c>
+      <c r="J21">
+        <f>J20-B12</f>
+        <v>56</v>
+      </c>
+      <c r="L21">
+        <v>42</v>
+      </c>
+      <c r="M21">
+        <f>M20-B12</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I22">
+        <f>A13-$E$1</f>
+        <v>43</v>
+      </c>
+      <c r="J22">
+        <f>J21</f>
+        <v>56</v>
+      </c>
+      <c r="L22">
+        <v>43</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ref="M22" si="18">M21</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I23">
+        <f>I22</f>
+        <v>43</v>
+      </c>
+      <c r="J23">
+        <f>J22-B13</f>
+        <v>50</v>
+      </c>
+      <c r="L23">
+        <v>43</v>
+      </c>
+      <c r="M23">
+        <f>M22-B13</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I24">
+        <f>A14-$E$1</f>
+        <v>44</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24" si="19">J23</f>
+        <v>50</v>
+      </c>
+      <c r="L24">
+        <v>44</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24" si="20">M23</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I25">
+        <f t="shared" ref="I25" si="21">I24</f>
+        <v>44</v>
+      </c>
+      <c r="J25">
+        <f>J24-B14</f>
+        <v>44</v>
+      </c>
+      <c r="L25">
+        <v>44</v>
+      </c>
+      <c r="M25">
+        <f>M24-B14</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I26">
+        <f>A15-$E$1</f>
+        <v>45</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="22">J25</f>
+        <v>44</v>
+      </c>
+      <c r="L26">
+        <v>45</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26" si="23">M25</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I27">
+        <f>I26</f>
+        <v>45</v>
+      </c>
+      <c r="J27">
+        <f>J26-B15</f>
+        <v>38</v>
+      </c>
+      <c r="L27">
+        <v>45</v>
+      </c>
+      <c r="M27">
+        <f>M26-B15</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I28">
+        <f>A16-$E$1</f>
+        <v>48</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28" si="24">J27</f>
+        <v>38</v>
+      </c>
+      <c r="L28">
+        <v>48</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28" si="25">M27</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I29">
+        <f t="shared" ref="I29" si="26">I28</f>
+        <v>48</v>
+      </c>
+      <c r="J29">
+        <f>J28-B16</f>
+        <v>32</v>
+      </c>
+      <c r="L29">
+        <v>48</v>
+      </c>
+      <c r="M29">
+        <f>M28-B16</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I30">
+        <f>A17-$E$1</f>
+        <v>49</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="27">J29</f>
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>49</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30" si="28">M29</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I31">
+        <f>I30</f>
+        <v>49</v>
+      </c>
+      <c r="J31">
+        <f>J30-B17</f>
+        <v>26</v>
+      </c>
+      <c r="L31">
+        <v>49</v>
+      </c>
+      <c r="M31">
+        <f>M30-B17</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="I32">
+        <f>A18-$E$1</f>
+        <v>50</v>
+      </c>
+      <c r="J32">
+        <f>J31</f>
+        <v>26</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32" si="29">M31</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I33">
+        <f>I32</f>
+        <v>50</v>
+      </c>
+      <c r="J33">
+        <f>J32-B18</f>
+        <v>23</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33">
+        <f>M32-B18</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I34">
+        <v>51</v>
+      </c>
+      <c r="J34">
+        <f>J33-23/3</f>
+        <v>15.333333333333332</v>
+      </c>
+      <c r="L34">
+        <v>51</v>
+      </c>
+      <c r="M34">
+        <f>M33-37/3</f>
+        <v>24.666666666666664</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I35">
+        <v>52</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J36" si="30">J34-23/3</f>
+        <v>7.6666666666666652</v>
+      </c>
+      <c r="L35">
+        <v>52</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35:M36" si="31">M34-37/3</f>
+        <v>12.33333333333333</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13" x14ac:dyDescent="0.45">
+      <c r="I36">
+        <v>53</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>53</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="253" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{031F97DB-DA10-4A4E-AEED-E8F3C6B24B19}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F1CD58-9B9C-4FA9-BB80-C87A64AC7389}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>moduler på given dag</t>
+  </si>
+  <si>
+    <t>opdateret burndown</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1283,13 +1286,22 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44690</v>
+      </c>
       <c r="K41">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L41">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
@@ -1299,7 +1311,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
@@ -1309,7 +1321,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
@@ -1319,7 +1331,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
@@ -1329,7 +1341,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
@@ -1339,7 +1351,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
@@ -1349,7 +1361,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
@@ -1359,7 +1371,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.45">
@@ -1369,7 +1381,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>82.94</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6F1CD58-9B9C-4FA9-BB80-C87A64AC7389}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{326FDB59-18C4-4195-91AF-86E17272CE27}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>opdateret burndown</t>
+  </si>
+  <si>
+    <t>Database hent vare</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1305,13 +1308,22 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0.16</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44690</v>
+      </c>
       <c r="K42">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L42">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>82.78</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
@@ -1321,7 +1333,7 @@
       </c>
       <c r="L43">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>82.78</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
@@ -1331,7 +1343,7 @@
       </c>
       <c r="L44">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>82.78</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
@@ -1341,7 +1353,7 @@
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>82.78</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
@@ -1351,7 +1363,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>82.78</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
@@ -1361,7 +1373,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>82.78</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
@@ -1371,7 +1383,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>82.78</v>
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.45">
@@ -1381,7 +1393,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>82.78</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{C98DA921-DA63-4A63-BD6A-F3E4F8992566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{326FDB59-18C4-4195-91AF-86E17272CE27}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72F825D-11AB-452D-95D5-D7E04CB10758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="3112" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -166,6 +166,15 @@
   </si>
   <si>
     <t>Database hent vare</t>
+  </si>
+  <si>
+    <t>Inbox m. beskeder</t>
+  </si>
+  <si>
+    <t>Tidligere vagter</t>
+  </si>
+  <si>
+    <t>Kontaktinformation m. settings</t>
   </si>
 </sst>
 </file>
@@ -500,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1327,33 +1336,60 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>8.4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44691</v>
+      </c>
       <c r="K43">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L43">
         <f t="shared" si="8"/>
-        <v>82.78</v>
+        <v>74.38</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44691</v>
+      </c>
       <c r="K44">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L44">
         <f t="shared" si="8"/>
-        <v>82.78</v>
+        <v>70.38</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>7.2</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44691</v>
+      </c>
       <c r="K45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L45">
         <f t="shared" si="8"/>
-        <v>82.78</v>
+        <v>63.179999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
@@ -1363,7 +1399,7 @@
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>82.78</v>
+        <v>63.179999999999993</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
@@ -1373,7 +1409,7 @@
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>82.78</v>
+        <v>63.179999999999993</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
@@ -1383,7 +1419,7 @@
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>82.78</v>
+        <v>63.179999999999993</v>
       </c>
     </row>
     <row r="49" spans="11:12" x14ac:dyDescent="0.45">
@@ -1393,7 +1429,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>82.78</v>
+        <v>63.179999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72F825D-11AB-452D-95D5-D7E04CB10758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96EFBFD-B3D5-4EE0-AAC2-F9212016E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="3112" windowWidth="16875" windowHeight="10523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Kontaktinformation m. settings</t>
+  </si>
+  <si>
+    <t>profil</t>
   </si>
 </sst>
 </file>
@@ -509,20 +512,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.265625" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -554,7 +557,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>2</v>
       </c>
@@ -578,7 +581,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -594,7 +597,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -613,7 +616,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -632,7 +635,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -651,7 +654,7 @@
         <v>170.42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -670,7 +673,7 @@
         <v>169.58999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -689,7 +692,7 @@
         <v>169.06999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -708,7 +711,7 @@
         <v>168.94999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -727,7 +730,7 @@
         <v>168.94999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -746,7 +749,7 @@
         <v>168.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -765,7 +768,7 @@
         <v>168.27999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -784,7 +787,7 @@
         <v>167.77999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -803,7 +806,7 @@
         <v>163.67999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -822,7 +825,7 @@
         <v>161.47999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -841,7 +844,7 @@
         <v>156.67999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -860,7 +863,7 @@
         <v>156.67999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -879,7 +882,7 @@
         <v>152.67999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -898,7 +901,7 @@
         <v>146.67999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -917,7 +920,7 @@
         <v>146.67999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -936,7 +939,7 @@
         <v>143.67999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -955,7 +958,7 @@
         <v>137.67999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -974,7 +977,7 @@
         <v>133.47999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -993,7 +996,7 @@
         <v>133.47999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1012,7 +1015,7 @@
         <v>129.38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1034,7 @@
         <v>129.38</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>129.12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>124.92</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>114.72</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>108.72</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1129,7 @@
         <v>103.92</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1145,7 +1148,7 @@
         <v>103.92</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>100.82000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>98.92</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>98.600000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>96.050000000000011</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1240,7 +1243,7 @@
         <v>93.050000000000011</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>92.79</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>92.14</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>84.94</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1316,7 +1319,7 @@
         <v>82.94</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>82.78</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>74.38</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>70.38</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -1392,44 +1395,53 @@
         <v>63.179999999999993</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <v>0.26</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44691</v>
+      </c>
       <c r="K46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="L46">
         <f t="shared" si="8"/>
-        <v>63.179999999999993</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+        <v>62.919999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L47">
         <f t="shared" si="8"/>
-        <v>63.179999999999993</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+        <v>62.919999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K48">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L48">
         <f t="shared" si="8"/>
-        <v>63.179999999999993</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.45">
+        <v>62.919999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.3">
       <c r="K49">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>63.179999999999993</v>
+        <v>62.919999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1452,15 +1464,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1.6</v>
       </c>
@@ -1537,7 +1549,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0.95</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1591,7 +1603,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>8.1999999999999993</v>
       </c>
@@ -1607,7 +1619,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2.0499999999999998</v>
       </c>
@@ -1623,7 +1635,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2.25</v>
       </c>
@@ -1639,7 +1651,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1658,7 +1670,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>0.8</v>
       </c>
@@ -1674,7 +1686,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>0.8</v>
       </c>
@@ -1690,7 +1702,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1721,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>3.2</v>
       </c>
@@ -1725,7 +1737,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1744,7 +1756,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5.2</v>
       </c>
@@ -1760,7 +1772,7 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1779,7 +1791,7 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1798,7 +1810,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1808,7 +1820,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K20">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1818,7 +1830,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K21">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1828,7 +1840,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K22">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1838,7 +1850,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K23">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1848,7 +1860,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K24">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1858,7 +1870,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1868,7 +1880,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K26">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1878,7 +1890,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1888,7 +1900,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K28">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1898,7 +1910,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K29">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1908,7 +1920,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K30">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1918,7 +1930,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K31">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1944,15 +1956,15 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.9296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44642</v>
       </c>
@@ -2018,7 +2030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44643</v>
       </c>
@@ -2041,7 +2053,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44650</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -2087,7 +2099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44656</v>
       </c>
@@ -2110,7 +2122,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44657</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44670</v>
       </c>
@@ -2156,7 +2168,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44671</v>
       </c>
@@ -2179,7 +2191,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44678</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44680</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44684</v>
       </c>
@@ -2248,7 +2260,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44685</v>
       </c>
@@ -2271,7 +2283,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44686</v>
       </c>
@@ -2294,7 +2306,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44687</v>
       </c>
@@ -2317,7 +2329,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44690</v>
       </c>
@@ -2340,7 +2352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44691</v>
       </c>
@@ -2363,7 +2375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44692</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I19">
         <f>I18</f>
         <v>38</v>
@@ -2403,7 +2415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I20">
         <f>A12-$E$1</f>
         <v>42</v>
@@ -2420,7 +2432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I21">
         <f>I20</f>
         <v>42</v>
@@ -2437,7 +2449,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I22">
         <f>A13-$E$1</f>
         <v>43</v>
@@ -2454,7 +2466,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I23">
         <f>I22</f>
         <v>43</v>
@@ -2471,7 +2483,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I24">
         <f>A14-$E$1</f>
         <v>44</v>
@@ -2488,7 +2500,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I25">
         <f t="shared" ref="I25" si="21">I24</f>
         <v>44</v>
@@ -2505,7 +2517,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I26">
         <f>A15-$E$1</f>
         <v>45</v>
@@ -2522,7 +2534,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I27">
         <f>I26</f>
         <v>45</v>
@@ -2539,7 +2551,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I28">
         <f>A16-$E$1</f>
         <v>48</v>
@@ -2556,7 +2568,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I29">
         <f t="shared" ref="I29" si="26">I28</f>
         <v>48</v>
@@ -2573,7 +2585,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I30">
         <f>A17-$E$1</f>
         <v>49</v>
@@ -2590,7 +2602,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I31">
         <f>I30</f>
         <v>49</v>
@@ -2607,7 +2619,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I32">
         <f>A18-$E$1</f>
         <v>50</v>
@@ -2624,7 +2636,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I33">
         <f>I32</f>
         <v>50</v>
@@ -2641,7 +2653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I34">
         <v>51</v>
       </c>
@@ -2657,7 +2669,7 @@
         <v>24.666666666666664</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I35">
         <v>52</v>
       </c>
@@ -2673,7 +2685,7 @@
         <v>12.33333333333333</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
       <c r="I36">
         <v>53</v>
       </c>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96EFBFD-B3D5-4EE0-AAC2-F9212016E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F96EFBFD-B3D5-4EE0-AAC2-F9212016E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6CDA78-F9BB-4F8A-ABEB-7A7EA94F03A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>profil</t>
+  </si>
+  <si>
+    <t>Database algortime kald</t>
+  </si>
+  <si>
+    <t>Database indkøbskurv</t>
   </si>
 </sst>
 </file>
@@ -510,22 +516,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.21875" customWidth="1"/>
+    <col min="1" max="1" width="33.19921875" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -557,7 +563,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B2">
         <v>2</v>
       </c>
@@ -581,7 +587,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.5</v>
       </c>
@@ -597,7 +603,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -616,7 +622,7 @@
         <v>173.5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -635,7 +641,7 @@
         <v>170.5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -654,7 +660,7 @@
         <v>170.42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -673,7 +679,7 @@
         <v>169.58999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -692,7 +698,7 @@
         <v>169.06999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -711,7 +717,7 @@
         <v>168.94999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -730,7 +736,7 @@
         <v>168.94999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -749,7 +755,7 @@
         <v>168.77999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -768,7 +774,7 @@
         <v>168.27999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -787,7 +793,7 @@
         <v>167.77999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -806,7 +812,7 @@
         <v>163.67999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -825,7 +831,7 @@
         <v>161.47999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -844,7 +850,7 @@
         <v>156.67999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -863,7 +869,7 @@
         <v>156.67999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -882,7 +888,7 @@
         <v>152.67999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -901,7 +907,7 @@
         <v>146.67999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -920,7 +926,7 @@
         <v>146.67999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -939,7 +945,7 @@
         <v>143.67999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -958,7 +964,7 @@
         <v>137.67999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -977,7 +983,7 @@
         <v>133.47999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>133.47999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>129.38</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>129.38</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>129.12</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>124.92</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1091,7 +1097,7 @@
         <v>114.72</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>108.72</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>103.92</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -1148,7 +1154,7 @@
         <v>103.92</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1167,7 +1173,7 @@
         <v>100.82000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>98.92</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1205,7 +1211,7 @@
         <v>98.600000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>96.050000000000011</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1243,7 +1249,7 @@
         <v>93.050000000000011</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -1254,15 +1260,15 @@
         <v>44690</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K49" si="7">IF(C38&lt;&gt;0,DAYS360($F$1,C38),0)</f>
+        <f t="shared" ref="K38:K50" si="7">IF(C38&lt;&gt;0,DAYS360($F$1,C38),0)</f>
         <v>47</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L49" si="8">L37-B38</f>
+        <f t="shared" ref="L38:L50" si="8">L37-B38</f>
         <v>92.79</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>29</v>
       </c>
@@ -1281,7 +1287,7 @@
         <v>92.14</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>84.94</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -1319,7 +1325,7 @@
         <v>82.94</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -1338,110 +1344,147 @@
         <v>82.78</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>44691</v>
       </c>
       <c r="K43">
+        <f t="shared" ref="K43" si="9">IF(C43&lt;&gt;0,DAYS360($F$1,C43),0)</f>
+        <v>48</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43" si="10">L42-B43</f>
+        <v>82.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>8.4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44691</v>
+      </c>
+      <c r="K44">
+        <f>IF(C44&lt;&gt;0,DAYS360($F$1,C44),0)</f>
+        <v>48</v>
+      </c>
+      <c r="L44">
+        <f>L42-B44</f>
+        <v>74.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44691</v>
+      </c>
+      <c r="K45">
+        <f>IF(C45&lt;&gt;0,DAYS360($F$1,C45),0)</f>
+        <v>48</v>
+      </c>
+      <c r="L45">
+        <f>L44-B45</f>
+        <v>70.38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7.2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44691</v>
+      </c>
+      <c r="K46">
+        <f>IF(C46&lt;&gt;0,DAYS360($F$1,C46),0)</f>
+        <v>48</v>
+      </c>
+      <c r="L46">
+        <f>L45-B46</f>
+        <v>63.179999999999993</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>0.26</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44691</v>
+      </c>
+      <c r="K47">
+        <f>IF(C47&lt;&gt;0,DAYS360($F$1,C47),0)</f>
+        <v>48</v>
+      </c>
+      <c r="L47">
+        <f>L46-B47</f>
+        <v>62.919999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>0.8</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44691</v>
+      </c>
+      <c r="K48">
+        <f>IF(C48&lt;&gt;0,DAYS360($F$1,C48),0)</f>
+        <v>48</v>
+      </c>
+      <c r="L48">
+        <f>L47-B48</f>
+        <v>62.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>0.25</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44691</v>
+      </c>
+      <c r="K49">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="8"/>
-        <v>74.38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44">
-        <v>4</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44691</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="8"/>
-        <v>70.38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45">
-        <v>7.2</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44691</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="8"/>
-        <v>63.179999999999993</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46">
-        <v>0.26</v>
-      </c>
-      <c r="C46" s="1">
-        <v>44691</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="8"/>
-        <v>62.919999999999995</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K47">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="8"/>
-        <v>62.919999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <f t="shared" si="8"/>
-        <v>62.919999999999995</v>
-      </c>
-    </row>
-    <row r="49" spans="11:12" x14ac:dyDescent="0.3">
-      <c r="K49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>62.919999999999995</v>
+        <v>61.87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="8"/>
+        <v>61.87</v>
       </c>
     </row>
   </sheetData>
@@ -1464,15 +1507,15 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1547,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1531,7 +1574,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1.6</v>
       </c>
@@ -1549,7 +1592,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1611,7 @@
         <v>111.4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B5">
         <v>0.95</v>
       </c>
@@ -1584,7 +1627,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1603,7 +1646,7 @@
         <v>110.45</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>8.1999999999999993</v>
       </c>
@@ -1619,7 +1662,7 @@
         <v>102.25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2.0499999999999998</v>
       </c>
@@ -1635,7 +1678,7 @@
         <v>100.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>2.25</v>
       </c>
@@ -1651,7 +1694,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1670,7 +1713,7 @@
         <v>97.95</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>0.8</v>
       </c>
@@ -1686,7 +1729,7 @@
         <v>97.15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>0.8</v>
       </c>
@@ -1702,7 +1745,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1721,7 +1764,7 @@
         <v>96.350000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>3.2</v>
       </c>
@@ -1737,7 +1780,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1756,7 +1799,7 @@
         <v>93.15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>5.2</v>
       </c>
@@ -1772,7 +1815,7 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1791,7 +1834,7 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1810,7 +1853,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K19">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1820,7 +1863,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K20">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1830,7 +1873,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K21">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1840,7 +1883,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K22">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1850,7 +1893,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K23">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1860,7 +1903,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K24">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1870,7 +1913,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K25">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1880,7 +1923,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K26">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1890,7 +1933,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1900,7 +1943,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K28">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1910,7 +1953,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K29">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1920,7 +1963,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K30">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1930,7 +1973,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="K31">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1956,15 +1999,15 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1999,7 +2042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>44642</v>
       </c>
@@ -2030,7 +2073,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>44643</v>
       </c>
@@ -2053,7 +2096,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>44650</v>
       </c>
@@ -2076,7 +2119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -2099,7 +2142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>44656</v>
       </c>
@@ -2122,7 +2165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>44657</v>
       </c>
@@ -2145,7 +2188,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>44670</v>
       </c>
@@ -2168,7 +2211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>44671</v>
       </c>
@@ -2191,7 +2234,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>44678</v>
       </c>
@@ -2214,7 +2257,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>44680</v>
       </c>
@@ -2237,7 +2280,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>44684</v>
       </c>
@@ -2260,7 +2303,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>44685</v>
       </c>
@@ -2283,7 +2326,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>44686</v>
       </c>
@@ -2306,7 +2349,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>44687</v>
       </c>
@@ -2329,7 +2372,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>44690</v>
       </c>
@@ -2352,7 +2395,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>44691</v>
       </c>
@@ -2375,7 +2418,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>44692</v>
       </c>
@@ -2398,7 +2441,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I19">
         <f>I18</f>
         <v>38</v>
@@ -2415,7 +2458,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I20">
         <f>A12-$E$1</f>
         <v>42</v>
@@ -2432,7 +2475,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I21">
         <f>I20</f>
         <v>42</v>
@@ -2449,7 +2492,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I22">
         <f>A13-$E$1</f>
         <v>43</v>
@@ -2466,7 +2509,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I23">
         <f>I22</f>
         <v>43</v>
@@ -2483,7 +2526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I24">
         <f>A14-$E$1</f>
         <v>44</v>
@@ -2500,7 +2543,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I25">
         <f t="shared" ref="I25" si="21">I24</f>
         <v>44</v>
@@ -2517,7 +2560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I26">
         <f>A15-$E$1</f>
         <v>45</v>
@@ -2534,7 +2577,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I27">
         <f>I26</f>
         <v>45</v>
@@ -2551,7 +2594,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I28">
         <f>A16-$E$1</f>
         <v>48</v>
@@ -2568,7 +2611,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I29">
         <f t="shared" ref="I29" si="26">I28</f>
         <v>48</v>
@@ -2585,7 +2628,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I30">
         <f>A17-$E$1</f>
         <v>49</v>
@@ -2602,7 +2645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I31">
         <f>I30</f>
         <v>49</v>
@@ -2619,7 +2662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="I32">
         <f>A18-$E$1</f>
         <v>50</v>
@@ -2636,7 +2679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I33">
         <f>I32</f>
         <v>50</v>
@@ -2653,7 +2696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I34">
         <v>51</v>
       </c>
@@ -2669,7 +2712,7 @@
         <v>24.666666666666664</v>
       </c>
     </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I35">
         <v>52</v>
       </c>
@@ -2685,7 +2728,7 @@
         <v>12.33333333333333</v>
       </c>
     </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:13" x14ac:dyDescent="0.45">
       <c r="I36">
         <v>53</v>
       </c>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{F96EFBFD-B3D5-4EE0-AAC2-F9212016E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9A6CDA78-F9BB-4F8A-ABEB-7A7EA94F03A0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BCCCD-D365-472C-ACE2-2EF7B9512DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5625" yWindow="3758" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -184,6 +184,42 @@
   </si>
   <si>
     <t>Database indkøbskurv</t>
+  </si>
+  <si>
+    <t>Indkøbskurv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Check ud </t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Vare information</t>
+  </si>
+  <si>
+    <t>Database wallet</t>
+  </si>
+  <si>
+    <t>Database check ud</t>
+  </si>
+  <si>
+    <t>Opret kort</t>
+  </si>
+  <si>
+    <t>Gemte kurv</t>
+  </si>
+  <si>
+    <t>Database gemte kurv</t>
+  </si>
+  <si>
+    <t>Check ud</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Dataindsættelse indkøbskurv</t>
   </si>
 </sst>
 </file>
@@ -516,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1260,11 +1296,11 @@
         <v>44690</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K50" si="7">IF(C38&lt;&gt;0,DAYS360($F$1,C38),0)</f>
+        <f t="shared" ref="K38:K65" si="7">IF(C38&lt;&gt;0,DAYS360($F$1,C38),0)</f>
         <v>47</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L50" si="8">L37-B38</f>
+        <f t="shared" ref="L38:L65" si="8">L37-B38</f>
         <v>92.79</v>
       </c>
     </row>
@@ -1478,13 +1514,307 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44692</v>
+      </c>
       <c r="K50">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L50">
         <f t="shared" si="8"/>
         <v>61.87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.25</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44692</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="8"/>
+        <v>61.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44692</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="8"/>
+        <v>55.62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44692</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="8"/>
+        <v>55.07</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44692</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="8"/>
+        <v>53.02</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>44693</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="8"/>
+        <v>53.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>0.26</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44693</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="8"/>
+        <v>52.760000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>0.6</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44693</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="8"/>
+        <v>52.160000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>0.16</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44693</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="8"/>
+        <v>52.000000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44694</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="8"/>
+        <v>52.000000000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60">
+        <v>0.26</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44694</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="8"/>
+        <v>51.740000000000009</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61">
+        <v>0.26</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44694</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="8"/>
+        <v>51.480000000000011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62">
+        <v>0.6</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44694</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="8"/>
+        <v>50.88000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>0.6</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44694</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="8"/>
+        <v>50.280000000000008</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44695</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="8"/>
+        <v>50.280000000000008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65">
+        <v>20.6</v>
+      </c>
+      <c r="C65" s="1">
+        <v>44695</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="8"/>
+        <v>29.680000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/Til burndown.xlsx
+++ b/Til burndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clara Maj\Documents\GitHub\DDU-Eksamensprojekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ef72ee1a1b1c74f8/Documents/GitHub/DDU-Eksamensprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BCCCD-D365-472C-ACE2-2EF7B9512DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="195" documentId="13_ncr:1_{645BCCCD-D365-472C-ACE2-2EF7B9512DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407F3EF6-E02D-4823-8CFE-782D8E47DC97}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="3758" windowWidth="16875" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="101">
   <si>
     <t>Størrelse af task (t)</t>
   </si>
@@ -220,6 +220,126 @@
   </si>
   <si>
     <t>Dataindsættelse indkøbskurv</t>
+  </si>
+  <si>
+    <t>Typegrafi</t>
+  </si>
+  <si>
+    <t>Farver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Produktnavn </t>
+  </si>
+  <si>
+    <t>Brugerundersøgelse</t>
+  </si>
+  <si>
+    <t>Problemanalyse</t>
+  </si>
+  <si>
+    <t>Indledning</t>
+  </si>
+  <si>
+    <t>Problemtræ</t>
+  </si>
+  <si>
+    <t>Problemformulering</t>
+  </si>
+  <si>
+    <t>Brainstorm</t>
+  </si>
+  <si>
+    <t>Nytteværdi</t>
+  </si>
+  <si>
+    <t>Krav og PvX</t>
+  </si>
+  <si>
+    <t>hårde krav</t>
+  </si>
+  <si>
+    <t>bløde krav</t>
+  </si>
+  <si>
+    <t>Målgruppeanalyse</t>
+  </si>
+  <si>
+    <t>arbejdstegninger</t>
+  </si>
+  <si>
+    <t>prototype</t>
+  </si>
+  <si>
+    <t>ændringer</t>
+  </si>
+  <si>
+    <t>afleverede dokumenter</t>
+  </si>
+  <si>
+    <t>Progression</t>
+  </si>
+  <si>
+    <t>roller</t>
+  </si>
+  <si>
+    <t>it sikkerhed</t>
+  </si>
+  <si>
+    <t>User journey</t>
+  </si>
+  <si>
+    <t>valg af teknologier</t>
+  </si>
+  <si>
+    <t>implementation af produktet</t>
+  </si>
+  <si>
+    <t>teknisk dokumentation</t>
+  </si>
+  <si>
+    <t>klassdiagram</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>brugertest af endeligt produkt</t>
+  </si>
+  <si>
+    <t>Evaluering</t>
+  </si>
+  <si>
+    <t>teknologianalyse</t>
+  </si>
+  <si>
+    <t>Vurdering</t>
+  </si>
+  <si>
+    <t>Konklusion</t>
+  </si>
+  <si>
+    <t>konkurrentanalyse</t>
+  </si>
+  <si>
+    <t>tid arbejdet</t>
+  </si>
+  <si>
+    <t>vagt</t>
+  </si>
+  <si>
+    <t>skriv meddelese</t>
+  </si>
+  <si>
+    <t>lav vagtplan</t>
+  </si>
+  <si>
+    <t>security method</t>
+  </si>
+  <si>
+    <t>hovsa</t>
+  </si>
+  <si>
+    <t>iteration 4</t>
   </si>
 </sst>
 </file>
@@ -262,13 +382,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -552,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -596,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -606,10 +728,10 @@
       <c r="C2" s="1">
         <v>44642</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
       <c r="G2">
         <f>DAYS360(F1,H1)</f>
         <v>53</v>
@@ -620,7 +742,7 @@
       </c>
       <c r="L2">
         <f>L1-B2</f>
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
@@ -636,7 +758,7 @@
       </c>
       <c r="L3">
         <f>L2-B3</f>
-        <v>173.5</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -655,7 +777,7 @@
       </c>
       <c r="L4">
         <f>L3-B4</f>
-        <v>173.5</v>
+        <v>193.5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
@@ -674,7 +796,7 @@
       </c>
       <c r="L5">
         <f>L3-B5</f>
-        <v>170.5</v>
+        <v>190.5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -693,7 +815,7 @@
       </c>
       <c r="L6">
         <f t="shared" ref="L6:L30" si="2">L5-B6</f>
-        <v>170.42</v>
+        <v>190.42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -712,7 +834,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>169.58999999999997</v>
+        <v>189.58999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
@@ -731,7 +853,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>169.06999999999996</v>
+        <v>189.06999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -750,7 +872,7 @@
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L25" si="4">L8-B9</f>
-        <v>168.94999999999996</v>
+        <v>188.94999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
@@ -769,7 +891,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>168.94999999999996</v>
+        <v>188.94999999999996</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -788,7 +910,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>168.77999999999997</v>
+        <v>188.77999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -807,7 +929,7 @@
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>168.27999999999997</v>
+        <v>188.27999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -826,7 +948,7 @@
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>167.77999999999997</v>
+        <v>187.77999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -845,7 +967,7 @@
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>163.67999999999998</v>
+        <v>183.67999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -864,7 +986,7 @@
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>161.47999999999999</v>
+        <v>181.48</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
@@ -883,7 +1005,7 @@
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>156.67999999999998</v>
+        <v>176.67999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -902,7 +1024,7 @@
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>156.67999999999998</v>
+        <v>176.67999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
@@ -921,7 +1043,7 @@
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>152.67999999999998</v>
+        <v>172.67999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
@@ -940,7 +1062,7 @@
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>146.67999999999998</v>
+        <v>166.67999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
@@ -959,7 +1081,7 @@
       </c>
       <c r="L20">
         <f t="shared" si="4"/>
-        <v>146.67999999999998</v>
+        <v>166.67999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
@@ -978,7 +1100,7 @@
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>143.67999999999998</v>
+        <v>163.67999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
@@ -997,7 +1119,7 @@
       </c>
       <c r="L22">
         <f t="shared" si="4"/>
-        <v>137.67999999999998</v>
+        <v>157.67999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
@@ -1016,7 +1138,7 @@
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>133.47999999999999</v>
+        <v>153.47999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
@@ -1035,7 +1157,7 @@
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>133.47999999999999</v>
+        <v>153.47999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -1054,7 +1176,7 @@
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>129.38</v>
+        <v>149.38</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
@@ -1073,7 +1195,7 @@
       </c>
       <c r="L26">
         <f t="shared" si="2"/>
-        <v>129.38</v>
+        <v>149.38</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
@@ -1092,7 +1214,7 @@
       </c>
       <c r="L27">
         <f t="shared" si="2"/>
-        <v>129.12</v>
+        <v>149.12</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
@@ -1111,7 +1233,7 @@
       </c>
       <c r="L28">
         <f t="shared" si="2"/>
-        <v>124.92</v>
+        <v>144.92000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
@@ -1130,7 +1252,7 @@
       </c>
       <c r="L29">
         <f t="shared" si="2"/>
-        <v>114.72</v>
+        <v>134.72000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
@@ -1149,7 +1271,7 @@
       </c>
       <c r="L30">
         <f t="shared" si="2"/>
-        <v>108.72</v>
+        <v>128.72000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
@@ -1168,7 +1290,7 @@
       </c>
       <c r="L31">
         <f t="shared" ref="L31:L37" si="6">L30-B31</f>
-        <v>103.92</v>
+        <v>123.92000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
@@ -1187,7 +1309,7 @@
       </c>
       <c r="L32">
         <f t="shared" si="6"/>
-        <v>103.92</v>
+        <v>123.92000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.45">
@@ -1206,7 +1328,7 @@
       </c>
       <c r="L33">
         <f t="shared" si="6"/>
-        <v>100.82000000000001</v>
+        <v>120.82000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.45">
@@ -1225,7 +1347,7 @@
       </c>
       <c r="L34">
         <f t="shared" si="6"/>
-        <v>98.92</v>
+        <v>118.92000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
@@ -1244,7 +1366,7 @@
       </c>
       <c r="L35">
         <f t="shared" si="6"/>
-        <v>98.600000000000009</v>
+        <v>118.60000000000004</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.45">
@@ -1263,7 +1385,7 @@
       </c>
       <c r="L36">
         <f t="shared" si="6"/>
-        <v>96.050000000000011</v>
+        <v>116.05000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.45">
@@ -1282,7 +1404,7 @@
       </c>
       <c r="L37">
         <f t="shared" si="6"/>
-        <v>93.050000000000011</v>
+        <v>113.05000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.45">
@@ -1296,12 +1418,12 @@
         <v>44690</v>
       </c>
       <c r="K38">
-        <f t="shared" ref="K38:K65" si="7">IF(C38&lt;&gt;0,DAYS360($F$1,C38),0)</f>
+        <f t="shared" ref="K38:K62" si="7">IF(C38&lt;&gt;0,DAYS360($F$1,C38),0)</f>
         <v>47</v>
       </c>
       <c r="L38">
-        <f t="shared" ref="L38:L65" si="8">L37-B38</f>
-        <v>92.79</v>
+        <f t="shared" ref="L38:L62" si="8">L37-B38</f>
+        <v>112.79000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.45">
@@ -1320,7 +1442,7 @@
       </c>
       <c r="L39">
         <f t="shared" si="8"/>
-        <v>92.14</v>
+        <v>112.14000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.45">
@@ -1339,7 +1461,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="8"/>
-        <v>84.94</v>
+        <v>104.94000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.45">
@@ -1358,7 +1480,7 @@
       </c>
       <c r="L41">
         <f t="shared" si="8"/>
-        <v>82.94</v>
+        <v>102.94000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.45">
@@ -1377,7 +1499,7 @@
       </c>
       <c r="L42">
         <f t="shared" si="8"/>
-        <v>82.78</v>
+        <v>102.78000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.45">
@@ -1396,7 +1518,7 @@
       </c>
       <c r="L43">
         <f t="shared" ref="L43" si="10">L42-B43</f>
-        <v>82.78</v>
+        <v>102.78000000000003</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.45">
@@ -1415,7 +1537,7 @@
       </c>
       <c r="L44">
         <f>L42-B44</f>
-        <v>74.38</v>
+        <v>94.380000000000024</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.45">
@@ -1434,7 +1556,7 @@
       </c>
       <c r="L45">
         <f>L44-B45</f>
-        <v>70.38</v>
+        <v>90.380000000000024</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.45">
@@ -1453,7 +1575,7 @@
       </c>
       <c r="L46">
         <f>L45-B46</f>
-        <v>63.179999999999993</v>
+        <v>83.180000000000021</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.45">
@@ -1472,7 +1594,7 @@
       </c>
       <c r="L47">
         <f>L46-B47</f>
-        <v>62.919999999999995</v>
+        <v>82.920000000000016</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.45">
@@ -1491,7 +1613,7 @@
       </c>
       <c r="L48">
         <f>L47-B48</f>
-        <v>62.12</v>
+        <v>82.120000000000019</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.45">
@@ -1510,7 +1632,7 @@
       </c>
       <c r="L49">
         <f t="shared" si="8"/>
-        <v>61.87</v>
+        <v>81.870000000000019</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.45">
@@ -1529,7 +1651,7 @@
       </c>
       <c r="L50">
         <f t="shared" si="8"/>
-        <v>61.87</v>
+        <v>81.870000000000019</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.45">
@@ -1548,7 +1670,7 @@
       </c>
       <c r="L51">
         <f t="shared" si="8"/>
-        <v>61.62</v>
+        <v>81.620000000000019</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.45">
@@ -1567,7 +1689,7 @@
       </c>
       <c r="L52">
         <f t="shared" si="8"/>
-        <v>55.62</v>
+        <v>75.620000000000019</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.45">
@@ -1586,7 +1708,7 @@
       </c>
       <c r="L53">
         <f t="shared" si="8"/>
-        <v>55.07</v>
+        <v>75.070000000000022</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.45">
@@ -1605,7 +1727,7 @@
       </c>
       <c r="L54">
         <f t="shared" si="8"/>
-        <v>53.02</v>
+        <v>73.020000000000024</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.45">
@@ -1624,7 +1746,7 @@
       </c>
       <c r="L55">
         <f t="shared" si="8"/>
-        <v>53.02</v>
+        <v>73.020000000000024</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.45">
@@ -1643,7 +1765,7 @@
       </c>
       <c r="L56">
         <f t="shared" si="8"/>
-        <v>52.760000000000005</v>
+        <v>72.760000000000019</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.45">
@@ -1662,7 +1784,7 @@
       </c>
       <c r="L57">
         <f t="shared" si="8"/>
-        <v>52.160000000000004</v>
+        <v>72.160000000000025</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.45">
@@ -1681,7 +1803,7 @@
       </c>
       <c r="L58">
         <f t="shared" si="8"/>
-        <v>52.000000000000007</v>
+        <v>72.000000000000028</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.45">
@@ -1700,7 +1822,7 @@
       </c>
       <c r="L59">
         <f t="shared" si="8"/>
-        <v>52.000000000000007</v>
+        <v>72.000000000000028</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.45">
@@ -1719,7 +1841,7 @@
       </c>
       <c r="L60">
         <f t="shared" si="8"/>
-        <v>51.740000000000009</v>
+        <v>71.740000000000023</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.45">
@@ -1738,7 +1860,7 @@
       </c>
       <c r="L61">
         <f t="shared" si="8"/>
-        <v>51.480000000000011</v>
+        <v>71.480000000000018</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.45">
@@ -1757,7 +1879,7 @@
       </c>
       <c r="L62">
         <f t="shared" si="8"/>
-        <v>50.88000000000001</v>
+        <v>70.880000000000024</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.45">
@@ -1771,12 +1893,12 @@
         <v>44694</v>
       </c>
       <c r="K63">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K63:K76" si="11">IF(C63&lt;&gt;0,DAYS360($F$1,C63),0)</f>
         <v>51</v>
       </c>
       <c r="L63">
-        <f t="shared" si="8"/>
-        <v>50.280000000000008</v>
+        <f t="shared" ref="L63:L76" si="12">L62-B63</f>
+        <v>70.28000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.45">
@@ -1790,12 +1912,12 @@
         <v>44695</v>
       </c>
       <c r="K64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="L64">
-        <f t="shared" si="8"/>
-        <v>50.280000000000008</v>
+        <f t="shared" si="12"/>
+        <v>70.28000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.45">
@@ -1809,12 +1931,200 @@
         <v>44695</v>
       </c>
       <c r="K65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>52</v>
       </c>
       <c r="L65">
-        <f t="shared" si="8"/>
-        <v>29.680000000000007</v>
+        <f t="shared" si="12"/>
+        <v>49.680000000000028</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="12"/>
+        <v>49.480000000000025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="12"/>
+        <v>48.930000000000028</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A68" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="12"/>
+        <v>48.690000000000026</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A69" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="12"/>
+        <v>47.940000000000026</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="12"/>
+        <v>43.740000000000023</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A71" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" s="5">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="12"/>
+        <v>43.740000000000023</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A72" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="5">
+        <v>28.74</v>
+      </c>
+      <c r="C72" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="12"/>
+        <v>15.000000000000025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A73" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73" s="5">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="12"/>
+        <v>2.4868995751603507E-14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C74" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="12"/>
+        <v>2.4868995751603507E-14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="C75" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="12"/>
+        <v>2.4868995751603507E-14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="12"/>
+        <v>2.4868995751603507E-14</v>
       </c>
     </row>
   </sheetData>
@@ -1831,15 +2141,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4915930-0AE6-44AB-AC1F-4E3A9117D17E}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
@@ -1874,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="L1">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -1887,10 +2197,10 @@
       <c r="C2" s="1">
         <v>44650</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="6"/>
       <c r="G2">
         <f>DAYS360(F1,H1)</f>
         <v>53</v>
@@ -1901,10 +2211,13 @@
       </c>
       <c r="L2">
         <f>L1-B2</f>
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
       <c r="B3">
         <v>1.6</v>
       </c>
@@ -1914,12 +2227,12 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="K3">
-        <f t="shared" ref="K3:K6" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
+        <f t="shared" ref="K3:K4" si="0">IF(C3&lt;&gt;0,DAYS360($F$1,C3),0)</f>
         <v>8</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L6" si="1">L2-B3</f>
-        <v>111.4</v>
+        <f t="shared" ref="L3:L4" si="1">L2-B3</f>
+        <v>98.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.45">
@@ -1938,10 +2251,13 @@
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>111.4</v>
+        <v>98.4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
       <c r="B5">
         <v>0.95</v>
       </c>
@@ -1949,12 +2265,12 @@
         <v>44652</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K5:K13" si="2">IF(C5&lt;&gt;0,DAYS360($F$1,C5),0)</f>
         <v>9</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
-        <v>110.45</v>
+        <f t="shared" ref="L5:L13" si="3">L4-B5</f>
+        <v>97.45</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
@@ -1968,15 +2284,18 @@
         <v>44656</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
-        <v>110.45</v>
+        <f t="shared" si="3"/>
+        <v>97.45</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
       <c r="B7">
         <v>8.1999999999999993</v>
       </c>
@@ -1984,17 +2303,20 @@
         <v>44656</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K13" si="2">IF(C7&lt;&gt;0,DAYS360($F$1,C7),0)</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="L7">
-        <f t="shared" ref="L7:L13" si="3">L6-B7</f>
-        <v>102.25</v>
+        <f t="shared" si="3"/>
+        <v>89.25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
       <c r="B8">
-        <v>2.0499999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="C8" s="1">
         <v>44656</v>
@@ -2005,12 +2327,15 @@
       </c>
       <c r="L8">
         <f t="shared" si="3"/>
-        <v>100.2</v>
+        <v>88.5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
       <c r="B9">
-        <v>2.25</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="C9" s="1">
         <v>44656</v>
@@ -2021,47 +2346,53 @@
       </c>
       <c r="L9">
         <f t="shared" si="3"/>
-        <v>97.95</v>
+        <v>86.45</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L10">
         <f t="shared" si="3"/>
-        <v>97.95</v>
+        <v>84.45</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
       <c r="B11">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="C11" s="1">
-        <v>44657</v>
+        <v>44656</v>
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>97.15</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>44657</v>
@@ -2072,245 +2403,634 @@
       </c>
       <c r="L12">
         <f t="shared" si="3"/>
-        <v>96.350000000000009</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C13" s="1">
-        <v>44678</v>
+        <v>44657</v>
       </c>
       <c r="K13">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <f t="shared" si="3"/>
-        <v>96.350000000000009</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
       <c r="B14">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="C14" s="1">
-        <v>44678</v>
+        <v>44657</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K31" si="4">IF(C14&lt;&gt;0,DAYS360($F$1,C14),0)</f>
-        <v>35</v>
+        <f t="shared" ref="K14:K45" si="4">IF(C14&lt;&gt;0,DAYS360($F$1,C14),0)</f>
+        <v>14</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L31" si="5">L13-B14</f>
-        <v>93.15</v>
+        <f t="shared" ref="L14:L45" si="5">L13-B14</f>
+        <v>80.600000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" s="1">
-        <v>44684</v>
+        <v>44678</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
-        <v>93.15</v>
+        <v>80.600000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="B16">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="C16" s="1">
-        <v>44684</v>
+        <v>44678</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
-        <v>87.95</v>
+        <v>74.800000000000011</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="C17" s="1">
-        <v>44685</v>
+        <v>44678</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
-        <v>87.95</v>
+        <v>71.600000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>44685</v>
+        <v>44684</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>71.600000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44684</v>
+      </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>62.800000000000011</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>44685</v>
+      </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>62.800000000000011</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>3.2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>44685</v>
+      </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>59.600000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44685</v>
+      </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>57.600000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44685</v>
+      </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>55.100000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>1.7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44685</v>
+      </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>53.400000000000006</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44695</v>
+      </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>53.400000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44695</v>
+      </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>49.400000000000006</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27">
+        <v>3.5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44695</v>
+      </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>45.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44695</v>
+      </c>
       <c r="K28">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>43.350000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>2.5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44695</v>
+      </c>
       <c r="K29">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>40.850000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44696</v>
+      </c>
       <c r="K30">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>40.850000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>3.6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44696</v>
+      </c>
       <c r="K31">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>84.75</v>
+        <v>37.250000000000007</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="5"/>
+        <v>31.250000000000007</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>29.050000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34">
+        <v>2.4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>26.650000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>24.45000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>22.45000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>20.250000000000011</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>17.250000000000011</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>2.75</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>14.500000000000011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>12.300000000000011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41">
+        <v>3.6</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>8.7000000000000117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>6.4000000000000119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>4.2000000000000117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44696</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>1.1546319456101628E-14</v>
       </c>
     </row>
   </sheetData>
@@ -2318,6 +3038,7 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2326,7 +3047,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2361,15 +3082,13 @@
         <v>0</v>
       </c>
       <c r="J1">
-        <f>177-3*B2</f>
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="L1">
         <v>0</v>
       </c>
       <c r="M1">
-        <f>113-B2</f>
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
@@ -2379,10 +3098,10 @@
       <c r="B2">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
       <c r="F2">
         <f>DAYS360(E1,G1)</f>
         <v>53</v>
@@ -2393,14 +3112,14 @@
       </c>
       <c r="J2">
         <f>J1</f>
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
         <f>M1</f>
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
@@ -2416,14 +3135,14 @@
       </c>
       <c r="J3">
         <f>J2-3*B3</f>
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
         <f>M2-B3</f>
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -2439,14 +3158,14 @@
       </c>
       <c r="J4">
         <f>J3</f>
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="L4">
         <v>8</v>
       </c>
       <c r="M4">
         <f>M3</f>
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
@@ -2462,14 +3181,14 @@
       </c>
       <c r="J5">
         <f>J4-3*B4</f>
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="L5">
         <v>8</v>
       </c>
       <c r="M5">
         <f>M4-B4</f>
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.45">
@@ -2485,14 +3204,14 @@
       </c>
       <c r="J6">
         <f>J5</f>
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="L6">
         <v>10</v>
       </c>
       <c r="M6">
         <f t="shared" ref="M6" si="0">M5</f>
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.45">
@@ -2508,14 +3227,14 @@
       </c>
       <c r="J7">
         <f>J6-3*B5</f>
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="L7">
         <v>10</v>
       </c>
       <c r="M7">
         <f>M6-B5</f>
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
@@ -2531,14 +3250,14 @@
       </c>
       <c r="J8">
         <f t="shared" ref="J8" si="1">J7</f>
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="L8">
         <v>14</v>
       </c>
       <c r="M8">
         <f t="shared" ref="M8" si="2">M7</f>
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
@@ -2554,14 +3273,14 @@
       </c>
       <c r="J9">
         <f>J8-3*B6</f>
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="L9">
         <v>14</v>
       </c>
       <c r="M9">
         <f>M8-B6</f>
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
@@ -2577,14 +3296,14 @@
       </c>
       <c r="J10">
         <f t="shared" ref="J10" si="4">J9</f>
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="L10">
         <v>15</v>
       </c>
       <c r="M10">
         <f t="shared" ref="M10" si="5">M9</f>
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.45">
@@ -2600,14 +3319,14 @@
       </c>
       <c r="J11">
         <f>J10-3*B7</f>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L11">
         <v>15</v>
       </c>
       <c r="M11">
         <f>M10-B7</f>
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.45">
@@ -2623,14 +3342,14 @@
       </c>
       <c r="J12">
         <f t="shared" ref="J12" si="7">J11</f>
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="L12">
         <v>28</v>
       </c>
       <c r="M12">
         <f t="shared" ref="M12" si="8">M11</f>
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.45">
@@ -2646,14 +3365,14 @@
       </c>
       <c r="J13">
         <f>J12-3*B8</f>
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L13">
         <v>28</v>
       </c>
       <c r="M13">
         <f>M12-B8</f>
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.45">
@@ -2669,14 +3388,14 @@
       </c>
       <c r="J14">
         <f t="shared" ref="J14" si="10">J13</f>
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="L14">
         <v>29</v>
       </c>
       <c r="M14">
         <f t="shared" ref="M14" si="11">M13</f>
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
@@ -2692,14 +3411,14 @@
       </c>
       <c r="J15">
         <f>J14-3*B9</f>
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="L15">
         <v>29</v>
       </c>
       <c r="M15">
         <f>M14-B9</f>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
@@ -2715,14 +3434,14 @@
       </c>
       <c r="J16">
         <f t="shared" ref="J16" si="13">J15</f>
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="L16">
         <v>36</v>
       </c>
       <c r="M16">
         <f t="shared" ref="M16" si="14">M15</f>
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
@@ -2738,14 +3457,14 @@
       </c>
       <c r="J17">
         <f>J16-3*B10</f>
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="L17">
         <v>36</v>
       </c>
       <c r="M17">
         <f>M16-B10</f>
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
@@ -2761,14 +3480,14 @@
       </c>
       <c r="J18">
         <f>J17</f>
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="L18">
         <v>38</v>
       </c>
       <c r="M18">
         <f t="shared" ref="M18" si="16">M17</f>
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
@@ -2778,14 +3497,14 @@
       </c>
       <c r="J19">
         <f>J18-3*B11</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L19">
         <v>38</v>
       </c>
       <c r="M19">
         <f>M18-B11</f>
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
@@ -2795,14 +3514,14 @@
       </c>
       <c r="J20">
         <f>J19</f>
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="L20">
         <v>42</v>
       </c>
       <c r="M20">
         <f t="shared" ref="M20" si="17">M19</f>
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
@@ -2812,14 +3531,14 @@
       </c>
       <c r="J21">
         <f>J20-B12</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="L21">
         <v>42</v>
       </c>
       <c r="M21">
         <f>M20-B12</f>
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
@@ -2829,14 +3548,14 @@
       </c>
       <c r="J22">
         <f>J21</f>
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="L22">
         <v>43</v>
       </c>
       <c r="M22">
         <f t="shared" ref="M22" si="18">M21</f>
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
@@ -2846,14 +3565,14 @@
       </c>
       <c r="J23">
         <f>J22-B13</f>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="L23">
         <v>43</v>
       </c>
       <c r="M23">
         <f>M22-B13</f>
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
@@ -2863,14 +3582,14 @@
       </c>
       <c r="J24">
         <f t="shared" ref="J24" si="19">J23</f>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="L24">
         <v>44</v>
       </c>
       <c r="M24">
         <f t="shared" ref="M24" si="20">M23</f>
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
@@ -2880,14 +3599,14 @@
       </c>
       <c r="J25">
         <f>J24-B14</f>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="L25">
         <v>44</v>
       </c>
       <c r="M25">
         <f>M24-B14</f>
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
@@ -2897,14 +3616,14 @@
       </c>
       <c r="J26">
         <f t="shared" ref="J26" si="22">J25</f>
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="L26">
         <v>45</v>
       </c>
       <c r="M26">
         <f t="shared" ref="M26" si="23">M25</f>
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
@@ -2914,14 +3633,14 @@
       </c>
       <c r="J27">
         <f>J26-B15</f>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="L27">
         <v>45</v>
       </c>
       <c r="M27">
         <f>M26-B15</f>
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
@@ -2931,14 +3650,14 @@
       </c>
       <c r="J28">
         <f t="shared" ref="J28" si="24">J27</f>
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="L28">
         <v>48</v>
       </c>
       <c r="M28">
         <f t="shared" ref="M28" si="25">M27</f>
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
@@ -2948,14 +3667,14 @@
       </c>
       <c r="J29">
         <f>J28-B16</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L29">
         <v>48</v>
       </c>
       <c r="M29">
         <f>M28-B16</f>
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
@@ -2965,14 +3684,14 @@
       </c>
       <c r="J30">
         <f t="shared" ref="J30" si="27">J29</f>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="L30">
         <v>49</v>
       </c>
       <c r="M30">
         <f t="shared" ref="M30" si="28">M29</f>
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
@@ -2982,14 +3701,14 @@
       </c>
       <c r="J31">
         <f>J30-B17</f>
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="L31">
         <v>49</v>
       </c>
       <c r="M31">
         <f>M30-B17</f>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
@@ -2999,14 +3718,14 @@
       </c>
       <c r="J32">
         <f>J31</f>
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="L32">
         <v>50</v>
       </c>
       <c r="M32">
         <f t="shared" ref="M32" si="29">M31</f>
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="9:13" x14ac:dyDescent="0.45">
@@ -3016,14 +3735,14 @@
       </c>
       <c r="J33">
         <f>J32-B18</f>
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="L33">
         <v>50</v>
       </c>
       <c r="M33">
         <f>M32-B18</f>
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="9:13" x14ac:dyDescent="0.45">
@@ -3031,15 +3750,15 @@
         <v>51</v>
       </c>
       <c r="J34">
-        <f>J33-23/3</f>
-        <v>15.333333333333332</v>
+        <f>J33-J33/3</f>
+        <v>36.666666666666671</v>
       </c>
       <c r="L34">
         <v>51</v>
       </c>
       <c r="M34">
-        <f>M33-37/3</f>
-        <v>24.666666666666664</v>
+        <f>M33-M33/3</f>
+        <v>18.666666666666664</v>
       </c>
     </row>
     <row r="35" spans="9:13" x14ac:dyDescent="0.45">
@@ -3047,15 +3766,15 @@
         <v>52</v>
       </c>
       <c r="J35">
-        <f t="shared" ref="J35:J36" si="30">J34-23/3</f>
-        <v>7.6666666666666652</v>
+        <f>J34-J33/3</f>
+        <v>18.333333333333339</v>
       </c>
       <c r="L35">
         <v>52</v>
       </c>
       <c r="M35">
-        <f t="shared" ref="M35:M36" si="31">M34-37/3</f>
-        <v>12.33333333333333</v>
+        <f>M34-M33/3</f>
+        <v>9.3333333333333304</v>
       </c>
     </row>
     <row r="36" spans="9:13" x14ac:dyDescent="0.45">
@@ -3063,14 +3782,14 @@
         <v>53</v>
       </c>
       <c r="J36">
-        <f t="shared" si="30"/>
+        <f>J35-J33/3</f>
         <v>0</v>
       </c>
       <c r="L36">
         <v>53</v>
       </c>
       <c r="M36">
-        <f t="shared" si="31"/>
+        <f>M35-M33/3</f>
         <v>0</v>
       </c>
     </row>
